--- a/Udin/data/dataset_outlier_pca_eigenvector_explaination.xlsx
+++ b/Udin/data/dataset_outlier_pca_eigenvector_explaination.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,61 +537,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3407967821437982</v>
+        <v>-0.09911972084057787</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03418295093125717</v>
+        <v>0.05027631537206319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01689218255068268</v>
+        <v>-0.2951899922880904</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01087908745427106</v>
+        <v>0.02070695714861555</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.002180919537897525</v>
+        <v>0.4823131925765499</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06243639940732581</v>
+        <v>0.1690417648769549</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04574003898553847</v>
+        <v>0.05243626984252857</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03698802569340257</v>
+        <v>0.2650906514059687</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0484704213103162</v>
+        <v>-0.2594820946316698</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05565208263253515</v>
+        <v>0.1483613349553405</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.02280598217591097</v>
+        <v>0.4182486067859657</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.100888681307305</v>
+        <v>-0.1137265912304061</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.06356243734442101</v>
+        <v>-0.3095872160713695</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06540735006182781</v>
+        <v>0.05351873772534225</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08746047013634868</v>
+        <v>0.09861089477406111</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0568307455333353</v>
+        <v>-0.01772890809955838</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.00735834872241135</v>
+        <v>0.2471980345950517</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01911310336057486</v>
+        <v>0.08291234229725576</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.08020015243397866</v>
+        <v>0.1081758722072257</v>
       </c>
     </row>
     <row r="3">
@@ -601,61 +601,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3539159759439635</v>
+        <v>-0.4269735938508931</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.06288855379243601</v>
+        <v>-0.02001701819471852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0131275698308295</v>
+        <v>-0.1422579071948757</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01680319845474091</v>
+        <v>0.07943134672377004</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0004852005175719626</v>
+        <v>-0.1085363837423309</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02602723173428689</v>
+        <v>-0.006185075241516846</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01185860853986117</v>
+        <v>0.1062044411835515</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.001086640222390968</v>
+        <v>-0.01089110951698581</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006914302859526269</v>
+        <v>0.09114995631655623</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03815421076313267</v>
+        <v>-0.08742892235267213</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.003753644642817246</v>
+        <v>-0.0832306652364804</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.01678354010428424</v>
+        <v>-0.05994550644308746</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.009756955324616396</v>
+        <v>-0.04505209142098318</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.02342777416918474</v>
+        <v>-0.08055166905004643</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.01223663966255338</v>
+        <v>0.05448455529060831</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01832233924988064</v>
+        <v>-0.07450488395086985</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.005850669859248599</v>
+        <v>0.003407175235684151</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.03506268055824719</v>
+        <v>0.02047704716326639</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.02347810444864604</v>
+        <v>-0.007337549347782191</v>
       </c>
     </row>
     <row r="4">
@@ -665,61 +665,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3543549883247821</v>
+        <v>-0.379122920691187</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0559966323639588</v>
+        <v>0.01841580801148564</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02101540101099034</v>
+        <v>-0.09992265888169435</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02157820823952411</v>
+        <v>0.01719014387421842</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01613439949224508</v>
+        <v>-0.2196044957616993</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03377670284603401</v>
+        <v>-0.005092580295932458</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001942033310364577</v>
+        <v>0.1723804545734054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01091732423715333</v>
+        <v>-0.07871167262987558</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004220955986171449</v>
+        <v>0.1514673880794173</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02088422314551838</v>
+        <v>-0.01454406766524236</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0300359181954334</v>
+        <v>0.001121297390629113</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.04115120533590305</v>
+        <v>-0.18077116803805</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04413477848941244</v>
+        <v>-0.1847636122484302</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0005686094691471633</v>
+        <v>0.1250097207095858</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03732491953858139</v>
+        <v>-0.2338145475026784</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02786122281967347</v>
+        <v>0.002762635369077717</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04704561469602302</v>
+        <v>-0.03708046821825173</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01881331946557044</v>
+        <v>0.06875045164535523</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.01608586158486193</v>
+        <v>0.1646087669486943</v>
       </c>
     </row>
     <row r="5">
@@ -729,61 +729,61 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3531793679716389</v>
+        <v>-0.3861001506482867</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.05762928757339936</v>
+        <v>0.04351718161276452</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01933255271994805</v>
+        <v>-0.03395820368660346</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01915053999292753</v>
+        <v>-0.1065119046990037</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0093071142165923</v>
+        <v>-0.2085067153366257</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03353203791342557</v>
+        <v>0.06647896113259581</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01450169373668403</v>
+        <v>0.02041301544630893</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009422908140736468</v>
+        <v>-0.1968830566246654</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01587120238107581</v>
+        <v>0.1742008236191467</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02484237355638591</v>
+        <v>-0.1160769041622883</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02616705206050495</v>
+        <v>0.1064087640157942</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.04454106927188137</v>
+        <v>-0.1844031750885924</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0320254653691682</v>
+        <v>-0.08370601492464388</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0135763921019372</v>
+        <v>-0.06363530911242818</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06692495497766451</v>
+        <v>-0.1446441990207971</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04369624383589395</v>
+        <v>-0.07255433155868427</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02247562171569905</v>
+        <v>0.06627236343957531</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01978605790205497</v>
+        <v>0.1150862150855336</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.02030943400015195</v>
+        <v>0.1029481750652353</v>
       </c>
     </row>
     <row r="6">
@@ -793,61 +793,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.119982126561771</v>
+        <v>-0.2997104507832177</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3167919149082373</v>
+        <v>-0.06501133478190219</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1808233950538031</v>
+        <v>0.05908570804241409</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.342715391190044</v>
+        <v>0.1847678247208215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05250531476316435</v>
+        <v>0.07160413259291515</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0654046958750924</v>
+        <v>0.1358128273591157</v>
       </c>
       <c r="H6" t="n">
-        <v>0.144647188623314</v>
+        <v>-0.08337770945313182</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1295274139917219</v>
+        <v>0.03428167331175885</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.39273187267335</v>
+        <v>-0.2197759864046899</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5406208855673967</v>
+        <v>-0.2791622648107457</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04897599201436609</v>
+        <v>-0.4072240732506254</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1480235723879475</v>
+        <v>0.1022589057771014</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3513033660230276</v>
+        <v>0.05275404021650512</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02911106087820878</v>
+        <v>0.31913408977084</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01835821859381257</v>
+        <v>0.3547479678710148</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.043447855605227</v>
+        <v>0.2177302597621689</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.06828452785134104</v>
+        <v>0.1350445115216775</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.09167593825908243</v>
+        <v>-0.1702817192636298</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08095763392279377</v>
+        <v>0.2202831389470157</v>
       </c>
     </row>
     <row r="7">
@@ -857,61 +857,61 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02764386209840987</v>
+        <v>-0.2424568715843006</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.302931366343362</v>
+        <v>-0.1621998229994429</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.006020551365905236</v>
+        <v>0.01367122591502265</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5439282915285483</v>
+        <v>0.4366332999660065</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2876082355311383</v>
+        <v>0.07086280606973716</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1778506261485184</v>
+        <v>0.08059197682697848</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1389570817370118</v>
+        <v>0.0264448012999657</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07946387425373481</v>
+        <v>0.1351700757151555</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1614974190225527</v>
+        <v>-0.255041488242098</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4647140659509718</v>
+        <v>0.08833139987424143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1412414790173055</v>
+        <v>0.1023786463323228</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0989168166229466</v>
+        <v>-0.3015697701157581</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1802965765702351</v>
+        <v>0.3393013725968053</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.05540928250063074</v>
+        <v>0.07143344699200296</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.05166347944334285</v>
+        <v>-0.176393042834779</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2238382017387149</v>
+        <v>0.1029779617917166</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.1134271021777017</v>
+        <v>-0.2952610594004172</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1132975667103936</v>
+        <v>-0.04762659222762158</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.1192621467578151</v>
+        <v>-0.1958567742335466</v>
       </c>
     </row>
     <row r="8">
@@ -921,61 +921,61 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3486650569344261</v>
+        <v>-0.2560790871380465</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.04662452567010847</v>
+        <v>0.03737951486430491</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0114911477171562</v>
+        <v>-0.1575245149897491</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02300427893613122</v>
+        <v>0.1522920868418954</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01431079198261562</v>
+        <v>0.06527879322925539</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.065204883110228</v>
+        <v>-0.3993219380693521</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002654145822622384</v>
+        <v>-0.2058949967312245</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03198218725303204</v>
+        <v>-0.1447962614058233</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04787725568984863</v>
+        <v>-0.2935931153969938</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004324221887674035</v>
+        <v>0.1106630160393557</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0335803115512571</v>
+        <v>-0.2377263434089111</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007966372693758751</v>
+        <v>0.2400624358692056</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02930029353055354</v>
+        <v>-0.1230897955461955</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.04809430335148604</v>
+        <v>-0.305708738104</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.01738401188173699</v>
+        <v>0.0002733757305093537</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.06366156649258178</v>
+        <v>-0.04144755811221656</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.003868887081518099</v>
+        <v>0.2252076346438267</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.06131953928430771</v>
+        <v>0.1938125595716524</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0480264510554238</v>
+        <v>-0.02951076811027674</v>
       </c>
     </row>
     <row r="9">
@@ -985,61 +985,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05268448975308111</v>
+        <v>0.247237360255966</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2402414916947364</v>
+        <v>-4.31558082381045e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2092899992542413</v>
+        <v>0.1480094479612243</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1272000849032379</v>
+        <v>0.01830038685670751</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03219020020811851</v>
+        <v>0.05339416278608725</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3047846874302211</v>
+        <v>0.1959120093593952</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1500340645709828</v>
+        <v>-0.3385868844097461</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7402957972198327</v>
+        <v>-0.2669671131474824</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.226459507086406</v>
+        <v>-0.3035417176947545</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1791814394963945</v>
+        <v>-0.4269015340681764</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1533232458318883</v>
+        <v>-0.02931290746618671</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00630891598614533</v>
+        <v>-0.3836763921116866</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.08175772944904611</v>
+        <v>-0.07219638772708858</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.002181241687917548</v>
+        <v>-0.1767160835035677</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1910227543505349</v>
+        <v>-0.2054510734147009</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01743657321291879</v>
+        <v>0.08341897277531879</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07745621350449702</v>
+        <v>0.09289384290262714</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.02987176140256292</v>
+        <v>0.182154225794679</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09186679920157985</v>
+        <v>-0.001060189252179669</v>
       </c>
     </row>
     <row r="10">
@@ -1049,61 +1049,61 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.002506056321071146</v>
+        <v>-0.1951581592513166</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3049748767875812</v>
+        <v>0.1244763469602596</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3728250497831427</v>
+        <v>0.1680229790497741</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08884158130637376</v>
+        <v>0.03100728141009131</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1341319951945219</v>
+        <v>0.5125636975079981</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702801979357548</v>
+        <v>-0.0562676807590502</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.09349542321828636</v>
+        <v>-0.009310266314236676</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1981136754572978</v>
+        <v>-0.3270303189407847</v>
       </c>
       <c r="J10" t="n">
-        <v>0.30091680653547</v>
+        <v>0.2105782847762976</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03348200412929869</v>
+        <v>-0.1756155139433271</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03336826068828105</v>
+        <v>0.1447943536205717</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1193206304346748</v>
+        <v>0.02871540819955386</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4083768349055859</v>
+        <v>0.2927372231482485</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2201379176954731</v>
+        <v>0.1204800072491497</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02626569477410014</v>
+        <v>0.01560441721637381</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.07348101467762397</v>
+        <v>-0.3422968734169115</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1028109594007034</v>
+        <v>-0.02677096449440131</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.04215433661969389</v>
+        <v>0.2337253063576133</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1005717192350153</v>
+        <v>-0.07119588417629533</v>
       </c>
     </row>
     <row r="11">
@@ -1113,61 +1113,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3458153572893788</v>
+        <v>-0.1678506068234752</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.03105728539163198</v>
+        <v>0.0532160959406669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04188279465010082</v>
+        <v>0.02063305343658531</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.007157005709807818</v>
+        <v>-0.3520389668503049</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04910148511015347</v>
+        <v>-0.06404960959444714</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07669265315409393</v>
+        <v>0.4049397416796512</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.001363115287871336</v>
+        <v>0.2154599597698778</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02143642486458019</v>
+        <v>0.2505656502808328</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02647014807834522</v>
+        <v>-0.2419294965903798</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.02446550913517348</v>
+        <v>-0.3449362948253615</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04286546834526968</v>
+        <v>0.0419811325833544</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.02209237478277191</v>
+        <v>0.3945971023222759</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.06860020632081021</v>
+        <v>0.1104109263333392</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.04037182075577989</v>
+        <v>-0.1242764669218121</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05528957461548623</v>
+        <v>-0.2070924630329356</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01021997983946746</v>
+        <v>0.02178944947624398</v>
       </c>
       <c r="R11" t="n">
-        <v>0.09192557371195366</v>
+        <v>-0.03894911151388435</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03642554523845848</v>
+        <v>0.113488467642064</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01621205556283466</v>
+        <v>-0.09385985924268798</v>
       </c>
     </row>
     <row r="12">
@@ -1177,61 +1177,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01788300525400851</v>
+        <v>0.03325065394102254</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2501521693254672</v>
+        <v>-0.4702868190409518</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.412374337024869</v>
+        <v>-0.1422448739562147</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03643692419666505</v>
+        <v>-0.1190488599291616</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3895986703963483</v>
+        <v>0.1981883336336981</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3296507113762396</v>
+        <v>0.2541337050211377</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05460418300803313</v>
+        <v>-0.06065650312890685</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1134728658742241</v>
+        <v>-0.1193527541904122</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1574245399435301</v>
+        <v>0.2322616303621725</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07542559116710973</v>
+        <v>0.05231890496818114</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1797170330143227</v>
+        <v>-0.2940021558499465</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.2449234764532573</v>
+        <v>0.003784425178332218</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3052824923605931</v>
+        <v>-0.336954442750027</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.1852881673055801</v>
+        <v>0.2372187131154055</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01943072359044762</v>
+        <v>-0.08612434046807457</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3554627390348749</v>
+        <v>-0.1375292742317891</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1174907681795415</v>
+        <v>0.08182960635058581</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1911488335367424</v>
+        <v>0.03825673784300215</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.08382386352247906</v>
+        <v>-0.2151355192214879</v>
       </c>
     </row>
     <row r="13">
@@ -1241,61 +1241,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005796399503924113</v>
+        <v>0.001516435924519507</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1929195251902927</v>
+        <v>-0.4298679661428596</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4061126390957384</v>
+        <v>-0.2408137897423303</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.228119886153244</v>
+        <v>0.08516286837104781</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2897877563561597</v>
+        <v>0.1219119491296002</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3081833426263845</v>
+        <v>0.3065389832712013</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1818919647537231</v>
+        <v>0.07519848252750286</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2363416230406427</v>
+        <v>-0.3342380307513335</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2224475924740057</v>
+        <v>0.03420247787380364</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2050255697033918</v>
+        <v>0.1516190002938422</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2856927041890766</v>
+        <v>0.0007030807033777675</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2048854448900642</v>
+        <v>0.1349574030367514</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.2581473724832825</v>
+        <v>0.09443932536206889</v>
       </c>
       <c r="O13" t="n">
-        <v>0.156271172486296</v>
+        <v>-0.4119199379333247</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02262254254814142</v>
+        <v>0.09723979523544481</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.2958841223220389</v>
+        <v>0.1491119645803104</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.1005233951788574</v>
+        <v>-0.2860178510499718</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.1266025804152774</v>
+        <v>-0.04659098297550431</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09521058899054301</v>
+        <v>0.1026151244749528</v>
       </c>
     </row>
     <row r="14">
@@ -1305,61 +1305,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0002755702091674182</v>
+        <v>-0.04190586484532837</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2183221780648272</v>
+        <v>0.2947909483788478</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2089354564210154</v>
+        <v>-0.07488039939139872</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05335315436506266</v>
+        <v>-0.09390050964130492</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3021982790520334</v>
+        <v>-0.2921486091455653</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1166916979902716</v>
+        <v>0.3073626762238038</v>
       </c>
       <c r="H14" t="n">
-        <v>0.770829008375898</v>
+        <v>-0.131424847413601</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03922207139553067</v>
+        <v>-0.4829164268908012</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2564267767275832</v>
+        <v>-0.3279754474855122</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1039720288219911</v>
+        <v>0.3259249213272533</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04166614704624236</v>
+        <v>0.149120922928994</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.07957689957307146</v>
+        <v>0.07673430431554662</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1833079499179506</v>
+        <v>0.002981936983409872</v>
       </c>
       <c r="O14" t="n">
-        <v>2.999568968292329e-05</v>
+        <v>0.25284472440967</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.04807358269546913</v>
+        <v>0.2169891924063293</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09180217810025776</v>
+        <v>-0.1249048968412082</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.001685930117360988</v>
+        <v>-0.05769937397064162</v>
       </c>
       <c r="S14" t="n">
-        <v>0.121112275922227</v>
+        <v>-0.07748908698458358</v>
       </c>
       <c r="T14" t="n">
-        <v>0.003422213994386053</v>
+        <v>-0.09213457667944763</v>
       </c>
     </row>
     <row r="15">
@@ -1369,61 +1369,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.04038445599912215</v>
+        <v>0.03263681497403727</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06808521149355379</v>
+        <v>-0.3926807485614754</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.431302219475105</v>
+        <v>-0.09248133980954434</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1809307139512342</v>
+        <v>0.1703281165900452</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1086079572320498</v>
+        <v>-0.3911919058353079</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4976850043922549</v>
+        <v>0.0240075469665923</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1060514361303187</v>
+        <v>-0.3333643905488654</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3122453120208065</v>
+        <v>0.2555931708334933</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08455874285196907</v>
+        <v>-0.03751772750618399</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3000150887629746</v>
+        <v>-0.1387313920683383</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.04976718748851952</v>
+        <v>0.2071951478279397</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1416180379612093</v>
+        <v>0.03703188641652944</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3226445910328921</v>
+        <v>0.06271146206743894</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2041853276411157</v>
+        <v>0.1430623816998344</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06560710162904851</v>
+        <v>0.1242213594324142</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1611800304570729</v>
+        <v>-0.4065753584052568</v>
       </c>
       <c r="R15" t="n">
-        <v>0.07006265771015469</v>
+        <v>0.05737078556335193</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1000062283066028</v>
+        <v>0.2305423383009168</v>
       </c>
       <c r="T15" t="n">
-        <v>0.05178572452208954</v>
+        <v>-0.03028340722257428</v>
       </c>
     </row>
     <row r="16">
@@ -1433,61 +1433,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1064386474906484</v>
+        <v>-0.08890466237364171</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3210875286996424</v>
+        <v>-0.3731057702693999</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2122274893498295</v>
+        <v>0.3108356616004582</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1556937754386506</v>
+        <v>0.01601127501360711</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3170709039914344</v>
+        <v>-0.05175266186940819</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02106602314287602</v>
+        <v>-0.2064078164322097</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1012808330573793</v>
+        <v>0.03517594860572459</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2032012588135664</v>
+        <v>-0.2565933536124704</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5712509975882782</v>
+        <v>-0.01121047434848349</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1554626397426876</v>
+        <v>-0.1353834806476948</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1051180257754122</v>
+        <v>0.4969204559583427</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1182804209265458</v>
+        <v>0.2686497653557813</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.2770526205659271</v>
+        <v>-0.05030090774604933</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3356453490135942</v>
+        <v>0.05947450794816272</v>
       </c>
       <c r="P16" t="n">
-        <v>0.08634173765497202</v>
+        <v>-0.05214450766725137</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1206095550771846</v>
+        <v>0.2204052894197926</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.1160733946313778</v>
+        <v>0.2937561579970893</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.003683708854392668</v>
+        <v>-0.2697299889583944</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.04949017418138855</v>
+        <v>-0.0335530880647569</v>
       </c>
     </row>
     <row r="17">
@@ -1497,61 +1497,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3473335861042955</v>
+        <v>-0.1618432442524748</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02189446340854462</v>
+        <v>0.03218041457277698</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007631144009443333</v>
+        <v>0.4166269503448276</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0185663283166585</v>
+        <v>0.002921959442736072</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02947710120237879</v>
+        <v>-0.06061895488881924</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.002481730361132584</v>
+        <v>0.3202129229604668</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.006622905319564276</v>
+        <v>-0.1969060610352813</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0004580746332186053</v>
+        <v>0.174880567414681</v>
       </c>
       <c r="J17" t="n">
-        <v>0.030207889961402</v>
+        <v>0.2851286327713358</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03241442145980294</v>
+        <v>0.266161923913428</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001570663745893264</v>
+        <v>0.04737524603196464</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01553529304809055</v>
+        <v>-0.1004232274922033</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.05593490668775426</v>
+        <v>0.05824856679455026</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0845589031656884</v>
+        <v>-0.3542040464989643</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1284233853929094</v>
+        <v>0.3308238387329543</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05904313759743068</v>
+        <v>0.1269250505659663</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.05062601516419651</v>
+        <v>0.2166480097223891</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02641035878317432</v>
+        <v>0.1934199001861905</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.02273156078326037</v>
+        <v>0.07382074304594481</v>
       </c>
     </row>
     <row r="18">
@@ -1561,61 +1561,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3098931502093192</v>
+        <v>-0.1113152227960568</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07047218575441502</v>
+        <v>0.1063575025848355</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02794122856070293</v>
+        <v>0.4954230066063595</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01289723776536309</v>
+        <v>0.2911504770427666</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0334769474730286</v>
+        <v>0.07793924124084793</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.03022481332117107</v>
+        <v>0.1061664915292294</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02798462983099551</v>
+        <v>-0.04391494448253469</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05134324662144962</v>
+        <v>0.07661445643877229</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02759030881487716</v>
+        <v>-0.04225992842203929</v>
       </c>
       <c r="K18" t="n">
-        <v>0.004092793969548647</v>
+        <v>0.04088552185123898</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.04606013346417337</v>
+        <v>-0.02415796917080329</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1554754470268712</v>
+        <v>0.1698576789422503</v>
       </c>
       <c r="N18" t="n">
-        <v>0.09846741219986427</v>
+        <v>-0.530364950666223</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1718495432800641</v>
+        <v>-0.00506748318124163</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.2753091382976862</v>
+        <v>-0.06815710189971988</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.2257764305708157</v>
+        <v>-0.1562588606402811</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.07709553103009567</v>
+        <v>-0.3547170501053465</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.04782675115239464</v>
+        <v>-0.0891760196558134</v>
       </c>
       <c r="T18" t="n">
-        <v>0.007803242621513745</v>
+        <v>-0.1759763833801734</v>
       </c>
     </row>
     <row r="19">
@@ -1625,61 +1625,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006314316905492552</v>
+        <v>0.007469801246105103</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01384496606093966</v>
+        <v>0.01430484760934092</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00635881878618847</v>
+        <v>-0.00672800802737632</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.001316846772031666</v>
+        <v>-7.659826305797922e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.008524139947545783</v>
+        <v>0.0005897626130280584</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.00157435419094988</v>
+        <v>-0.001769461416972465</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01119715902168096</v>
+        <v>-0.01386956947408324</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01079418351205776</v>
+        <v>0.0002651073615748916</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01390663865909801</v>
+        <v>-0.0002016265084946238</v>
       </c>
       <c r="K19" t="n">
-        <v>3.852894101224757e-05</v>
+        <v>-0.009783805866920552</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004816105128422203</v>
+        <v>0.005438881310666212</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.008657706603319566</v>
+        <v>0.01886833165222994</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0156871250333951</v>
+        <v>-0.003296110217920751</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001924772271073034</v>
+        <v>-0.006082090377058352</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.008558327062101207</v>
+        <v>-0.006093956128566412</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03306803109997471</v>
+        <v>0.00121244054737626</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.02131245421560136</v>
+        <v>-0.01880063883243713</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0001661634028128533</v>
+        <v>-0.0150200883428805</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0004135017176642133</v>
+        <v>0.002797407009707029</v>
       </c>
     </row>
     <row r="20">
@@ -1689,61 +1689,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.006675580621441248</v>
+        <v>0.003205489391979889</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0040766207018163</v>
+        <v>0.0233405110317527</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02322851899341158</v>
+        <v>0.008776707476126341</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.00447300943386007</v>
+        <v>0.0007405193234577735</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.007542692884538505</v>
+        <v>0.0253110878308292</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01839851208631852</v>
+        <v>-0.005124337257147415</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.02987625628304528</v>
+        <v>0.002195412957802759</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.01172250362509495</v>
+        <v>0.009601162896050498</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01870371742841969</v>
+        <v>0.03152189574620762</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.002443600889456567</v>
+        <v>0.001060953305065198</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.02018431162677731</v>
+        <v>0.0002644583976823558</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.02160636888939866</v>
+        <v>0.04339611758380336</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.03382820302851901</v>
+        <v>0.007794205355834014</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03682152774926709</v>
+        <v>-0.004961220198056756</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.03312674422472856</v>
+        <v>-0.002408239216876956</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03131755387195584</v>
+        <v>0.007192656557004743</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.02187379428840118</v>
+        <v>-0.02682731121621445</v>
       </c>
       <c r="S20" t="n">
-        <v>0.02184307945706553</v>
+        <v>-0.002119110394453855</v>
       </c>
       <c r="T20" t="n">
-        <v>0.006462306604048098</v>
+        <v>0.04857823688029942</v>
       </c>
     </row>
     <row r="21">
@@ -1753,61 +1753,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02537876530909931</v>
+        <v>-0.005267817076499007</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02715624951650984</v>
+        <v>0.03075582797101589</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003822002090185216</v>
+        <v>-0.02972301662629574</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.09979131731352069</v>
+        <v>0.07386640830922551</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0138886506113344</v>
+        <v>-0.03882185628848676</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.04614567923683917</v>
+        <v>0.03624111310247344</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003186869897819579</v>
+        <v>0.02097727006274659</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.02357130605895049</v>
+        <v>0.02367116684351182</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03874085504308547</v>
+        <v>0.01809312233616617</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.007310007158578618</v>
+        <v>0.01275005536757237</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.02070690485908338</v>
+        <v>0.02635793314901379</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2071136411213957</v>
+        <v>0.03542166308132149</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.132133131721467</v>
+        <v>0.0494279143444737</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1083188655898059</v>
+        <v>-0.1237825551836709</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1526272450770766</v>
+        <v>-0.06870165710630903</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0186433187713109</v>
+        <v>-0.0873361288079527</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.0798891514006277</v>
+        <v>0.1039546803940278</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4548891770397709</v>
+        <v>-0.1975580370556101</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1896209144811858</v>
+        <v>-0.04829621925057087</v>
       </c>
     </row>
     <row r="22">
@@ -1817,61 +1817,61 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.03756801986916</v>
+        <v>-0.01937786795385383</v>
       </c>
       <c r="C22" t="n">
-        <v>0.029110653926542</v>
+        <v>0.0209923196263909</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01789724627797816</v>
+        <v>-0.05576175903114362</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.03562105108047291</v>
+        <v>0.03391864389481384</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08927158130692923</v>
+        <v>-0.00863255094866368</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02991669539580695</v>
+        <v>-0.03751852944788774</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02336512263828128</v>
+        <v>-0.154468833605854</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06932882582277022</v>
+        <v>-0.02191916725719904</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.02670775719899474</v>
+        <v>-0.0110194734235592</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0692294917131419</v>
+        <v>0.03125606163346545</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.04621467354360693</v>
+        <v>-0.04059587191176515</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1344728104644816</v>
+        <v>-0.0510331017859207</v>
       </c>
       <c r="N22" t="n">
-        <v>0.08037960107443487</v>
+        <v>-0.01813519758915195</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.1906162947854567</v>
+        <v>-0.05470130491317361</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02037673882468969</v>
+        <v>-0.006579648010555141</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.2727140748179821</v>
+        <v>-0.02477081016935271</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.0476148479085949</v>
+        <v>0.209295625690382</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4205362451862318</v>
+        <v>-0.07993084284009951</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02642432047412283</v>
+        <v>-0.1813612004785244</v>
       </c>
     </row>
     <row r="23">
@@ -1881,61 +1881,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.008773159038707852</v>
+        <v>0.01312945139686885</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01564779426060819</v>
+        <v>-0.03012521854675513</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.02855441303891506</v>
+        <v>0.02440511641238254</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03168339101255421</v>
+        <v>-0.01207961264307339</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.03908076780552384</v>
+        <v>0.01430420167085255</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02685558023553628</v>
+        <v>0.003330695234033809</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02209886050613983</v>
+        <v>0.06042208984508647</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.03390680175673622</v>
+        <v>-0.004401577411233616</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01382882728100533</v>
+        <v>-0.01953121790580564</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0498374702794521</v>
+        <v>0.001287317499712969</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02240865245017161</v>
+        <v>-0.01300763568922925</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01436740811898809</v>
+        <v>-0.004370859206116549</v>
       </c>
       <c r="N23" t="n">
-        <v>0.039023544930891</v>
+        <v>0.01890013432989508</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02738550712582069</v>
+        <v>-0.006133694501135193</v>
       </c>
       <c r="P23" t="n">
-        <v>0.008554580563749921</v>
+        <v>0.05580442776023001</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01127992184090175</v>
+        <v>-0.04146032651518208</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.02669211796847807</v>
+        <v>0.01048055273571481</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.02426024886032967</v>
+        <v>0.02521493336370497</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.006774734679103435</v>
+        <v>-0.018894603472738</v>
       </c>
     </row>
     <row r="24">
@@ -1945,61 +1945,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.02185992006961995</v>
+        <v>-0.02733383178349369</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008007857095323791</v>
+        <v>0.03068694191798643</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03265603256722163</v>
+        <v>-0.02840779684429925</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.04512760427797973</v>
+        <v>0.01797544056210213</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03153327034806654</v>
+        <v>0.006868733637364858</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01042007045513488</v>
+        <v>0.01719830946322051</v>
       </c>
       <c r="H24" t="n">
-        <v>0.009723910983110913</v>
+        <v>-0.03133836566452664</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0406865438863598</v>
+        <v>-0.03233251771076139</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03489748774196821</v>
+        <v>-0.02555342012379427</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.07399238398000585</v>
+        <v>-0.03026422631550984</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.01480105927109132</v>
+        <v>0.04367377736782336</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02242972727912525</v>
+        <v>0.0296255898676429</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.03539817521656641</v>
+        <v>-0.05919163530746212</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.03079139457830684</v>
+        <v>0.003646517152046069</v>
       </c>
       <c r="P24" t="n">
-        <v>0.03279264096721753</v>
+        <v>-0.1275147024767765</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03377914430112769</v>
+        <v>0.02364534805386138</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04720685099830386</v>
+        <v>-0.01699599692627998</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.08558671642489238</v>
+        <v>-0.02101241604081962</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02744031128520935</v>
+        <v>-0.01316742610501408</v>
       </c>
     </row>
     <row r="25">
@@ -2009,61 +2009,61 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.008740161281067494</v>
+        <v>0.02771668667621967</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0417976892484271</v>
+        <v>0.01520516690370008</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01888943704858447</v>
+        <v>0.0290526979167112</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01944158779400057</v>
+        <v>-0.004087682232568895</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003342561598706318</v>
+        <v>-0.02012057153112552</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04113632957551847</v>
+        <v>0.03057409466501341</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01458223365224221</v>
+        <v>0.0008162506272505685</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.003092385015749687</v>
+        <v>-0.02599693641388289</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.01238777632835503</v>
+        <v>0.02434429295002127</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04425824570708989</v>
+        <v>-0.003770727786109645</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.1178724898001076</v>
+        <v>-0.06542719673969863</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.05386382285114464</v>
+        <v>0.09077162786663319</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.05159235619701506</v>
+        <v>-0.06463906058262353</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01751004723653041</v>
+        <v>0.01821464681060024</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.05289215470350504</v>
+        <v>-0.0615492891434461</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02356390659312933</v>
+        <v>-0.004723172758144002</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1407535903170463</v>
+        <v>0.06552921727067613</v>
       </c>
       <c r="S25" t="n">
-        <v>0.04638636991270247</v>
+        <v>0.05751485105801528</v>
       </c>
       <c r="T25" t="n">
-        <v>0.06901489120761603</v>
+        <v>0.0862934666474018</v>
       </c>
     </row>
     <row r="26">
@@ -2073,61 +2073,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.01927982159421621</v>
+        <v>-0.09921830400282255</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08617975820579314</v>
+        <v>0.2479634694442518</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2757238554481075</v>
+        <v>-0.2897699993346312</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.316961423458856</v>
+        <v>0.05389028531724476</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5409375025845711</v>
+        <v>0.0819397265981535</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.04067151934004325</v>
+        <v>0.1339098524394912</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.3431087769530244</v>
+        <v>-0.5846083277514427</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2427676154367252</v>
+        <v>0.08763899536994577</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2360930743899611</v>
+        <v>0.3445903284831103</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.1664410418919486</v>
+        <v>-0.0637477203523357</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.2296260029495236</v>
+        <v>0.1017834866155824</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.1620845211726011</v>
+        <v>0.2467585303621933</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.173474959568387</v>
+        <v>0.05646353102953928</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.1854926195427746</v>
+        <v>0.0886223593741043</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0959408810504377</v>
+        <v>-0.2144835567901691</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.06587718764746539</v>
+        <v>0.3010584363497072</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.06888771221664249</v>
+        <v>-0.04697804567224469</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.1127580227099704</v>
+        <v>-0.1365283587187061</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.07266505171549137</v>
+        <v>-0.1231100031254642</v>
       </c>
     </row>
     <row r="27">
@@ -2137,61 +2137,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.01247329073413862</v>
+        <v>-0.04771034321219068</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.06713761110914658</v>
+        <v>-0.01050968181052823</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04732824577179574</v>
+        <v>-0.05241241237698702</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03104730951593377</v>
+        <v>-0.08114880288638734</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03334185949244434</v>
+        <v>0.03100975525324742</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.02620145545400266</v>
+        <v>-0.06914738135534514</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.03826349123006969</v>
+        <v>-0.00476323985226128</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01623650932031061</v>
+        <v>-0.01630155497541793</v>
       </c>
       <c r="J27" t="n">
-        <v>0.000932043785700938</v>
+        <v>-0.02780396888899984</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002848642066035736</v>
+        <v>-0.104035426729152</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2584045381254734</v>
+        <v>0.04108422162618752</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.1298775207015606</v>
+        <v>-0.08063818981760419</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04466222818016412</v>
+        <v>0.01272180799366659</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02398118375704485</v>
+        <v>0.02770910685130029</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.05891899833460641</v>
+        <v>0.1772888918696266</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.1801839323070776</v>
+        <v>0.08879835653447847</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0258702257002562</v>
+        <v>-0.1180898177800624</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1049753573167859</v>
+        <v>0.08471692623440318</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1306590390470165</v>
+        <v>0.00544742075045388</v>
       </c>
     </row>
     <row r="28">
@@ -2201,61 +2201,61 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009476886538750345</v>
+        <v>-0.01814354888947176</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0416266237147892</v>
+        <v>-0.009685583885478573</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01338868580561087</v>
+        <v>0.06795326701091461</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03131688554551716</v>
+        <v>-0.02450475980087966</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0006301963460896616</v>
+        <v>0.02016718655764388</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06054813674437276</v>
+        <v>0.08978035629943082</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09830262221348053</v>
+        <v>0.05496833983432433</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.02738969410335541</v>
+        <v>-0.001042234668873943</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.05978379316272924</v>
+        <v>-0.0835213231721873</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1336733600028567</v>
+        <v>0.0277695081783237</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.1256844576379414</v>
+        <v>-0.109353238224924</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3125680816983032</v>
+        <v>0.09351303649925374</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.07754542298590672</v>
+        <v>0.02550039741287227</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.05800039190647688</v>
+        <v>-0.08335146702062315</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08985536650347876</v>
+        <v>-0.08878671833074459</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.125096309885783</v>
+        <v>-0.196899302387858</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.05541758295100669</v>
+        <v>0.1293480772894013</v>
       </c>
       <c r="S28" t="n">
-        <v>0.00156566767302611</v>
+        <v>-0.2379137279329868</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.09649290460311256</v>
+        <v>-0.05424967494642748</v>
       </c>
     </row>
     <row r="29">
@@ -2265,61 +2265,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.00107698181232317</v>
+        <v>0.01239441943631858</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07232473641271042</v>
+        <v>0.04197278121316551</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01359558487027587</v>
+        <v>0.01246413619642658</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.116456254903713</v>
+        <v>0.1466523424446367</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0486482678089775</v>
+        <v>-0.02513591401312354</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03858104328178595</v>
+        <v>0.0538244848929958</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06680863768095946</v>
+        <v>0.02599376474667295</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.04803195855717944</v>
+        <v>-0.01337918668845557</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.04003135171439746</v>
+        <v>-0.01017186364507975</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.08396128055859683</v>
+        <v>0.1342530701893838</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2943009306743865</v>
+        <v>-0.1027712613693158</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2199063762578141</v>
+        <v>0.08432078670450754</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.08684491437439558</v>
+        <v>0.05052816621742906</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1060355775955553</v>
+        <v>-0.06940859507916304</v>
       </c>
       <c r="P29" t="n">
-        <v>0.03356045955943396</v>
+        <v>-0.27003281434093</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1111099699320202</v>
+        <v>-0.1303502438482299</v>
       </c>
       <c r="R29" t="n">
-        <v>0.05592085632969956</v>
+        <v>0.1193467693288331</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.02437153695967648</v>
+        <v>0.007021962059990243</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.003290121663618644</v>
+        <v>0.1191415512347404</v>
       </c>
     </row>
     <row r="30">
@@ -2329,61 +2329,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008113920640369275</v>
+        <v>0.01370887144650381</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02162681012139046</v>
+        <v>0.01963084594278492</v>
       </c>
       <c r="D30" t="n">
-        <v>0.004755206935335969</v>
+        <v>-0.00847677101273582</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.009000814837550932</v>
+        <v>0.0103568244610916</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.003199748581387096</v>
+        <v>0.02176936496904926</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04028357994571576</v>
+        <v>0.01003334868864946</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.00733732641946924</v>
+        <v>0.02287018294840813</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02569621827092885</v>
+        <v>-0.01367721710244033</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.00560719414987716</v>
+        <v>0.01788462333749301</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.005378787883823743</v>
+        <v>0.006980990445121859</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.02432609833896901</v>
+        <v>-0.02548007639770648</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01328025342787056</v>
+        <v>0.01303077213816818</v>
       </c>
       <c r="N30" t="n">
-        <v>0.003677977168662265</v>
+        <v>-0.006481434726740756</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.01790118147651505</v>
+        <v>-0.008165796984411668</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.01955112904459996</v>
+        <v>-0.02087241599547324</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.02648452581513187</v>
+        <v>-0.007150930240471869</v>
       </c>
       <c r="R30" t="n">
-        <v>0.04798764934084902</v>
+        <v>0.02193460938216263</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01958361187934882</v>
+        <v>-0.001412480578046577</v>
       </c>
       <c r="T30" t="n">
-        <v>0.002305427531002661</v>
+        <v>0.005188711051311364</v>
       </c>
     </row>
     <row r="31">
@@ -2393,61 +2393,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.002505786638694907</v>
+        <v>-0.001137688371204628</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0204159983327246</v>
+        <v>-0.003288006378825751</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02321175715681006</v>
+        <v>0.02293028825279402</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.1142669151174346</v>
+        <v>0.1187551500862088</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.03484641386953564</v>
+        <v>-0.06534305433969524</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.04796492451960261</v>
+        <v>0.036685554681357</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05580562749078165</v>
+        <v>-0.03103466157993226</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01400584606881517</v>
+        <v>0.005499267076169967</v>
       </c>
       <c r="J31" t="n">
-        <v>0.03910586222122168</v>
+        <v>-0.00886583422999267</v>
       </c>
       <c r="K31" t="n">
-        <v>0.007033741000667372</v>
+        <v>0.07698747800114467</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.1777692821768902</v>
+        <v>-0.01534132631313117</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2681873533223798</v>
+        <v>0.08804766701765233</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.03634177204178264</v>
+        <v>0.1742722978049738</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1297916674853218</v>
+        <v>-0.07975793481877158</v>
       </c>
       <c r="P31" t="n">
-        <v>0.09045442379833459</v>
+        <v>-0.1126308526783998</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1198222022718126</v>
+        <v>-0.1958537752663977</v>
       </c>
       <c r="R31" t="n">
-        <v>0.009274146751212813</v>
+        <v>0.08247288407118213</v>
       </c>
       <c r="S31" t="n">
-        <v>0.001528053405872819</v>
+        <v>-0.05004630097138008</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.1749115867568219</v>
+        <v>0.04149847549532139</v>
       </c>
     </row>
     <row r="32">
@@ -2457,61 +2457,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.007117451757596776</v>
+        <v>0.03409197336146029</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03368382392947663</v>
+        <v>7.774417359732242e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.03644376945233543</v>
+        <v>0.02641588676897823</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.03686285639385684</v>
+        <v>0.05477152065586353</v>
       </c>
       <c r="F32" t="n">
-        <v>0.008100220413198906</v>
+        <v>0.02500815593513552</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02679241231367562</v>
+        <v>0.06393817945343226</v>
       </c>
       <c r="H32" t="n">
-        <v>0.005946302713775367</v>
+        <v>-0.07329599752870546</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0951718444355789</v>
+        <v>0.02434449566922114</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.03442755765653209</v>
+        <v>-0.01395288520902531</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.09289773580798691</v>
+        <v>0.02335102539569474</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.160574660770493</v>
+        <v>-0.0004449598262656556</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03339367028601356</v>
+        <v>0.004736485577324338</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.0724431826729349</v>
+        <v>-0.04286087181296634</v>
       </c>
       <c r="O32" t="n">
-        <v>0.006505557841139781</v>
+        <v>0.03775146083062883</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.1451907077399663</v>
+        <v>-0.1704975592748148</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0319886811112105</v>
+        <v>0.001702326213496903</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.09905005847016797</v>
+        <v>-0.007039447240778637</v>
       </c>
       <c r="S32" t="n">
-        <v>0.01243329038839779</v>
+        <v>-0.06386472946885773</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.02873502000557991</v>
+        <v>0.1464759254155324</v>
       </c>
     </row>
     <row r="33">
@@ -2521,61 +2521,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02072109677306613</v>
+        <v>0.04803619063654888</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07692430244363456</v>
+        <v>0.01972977870289616</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.04767094903231883</v>
+        <v>-0.01607822277612279</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.1491613645363401</v>
+        <v>0.1809770081000999</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.06330525591079929</v>
+        <v>-0.02366472049799126</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.01096983489548723</v>
+        <v>0.009464764681305957</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02767261318407213</v>
+        <v>0.003491146170938686</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.05590130176077927</v>
+        <v>0.0006915980963937206</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03602444611476821</v>
+        <v>0.02838436316729302</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.07493674282578125</v>
+        <v>0.1695449805284516</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3068826213384546</v>
+        <v>-0.02707825064149263</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.02220787485152789</v>
+        <v>0.1224071499438169</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0618510215661521</v>
+        <v>0.05372740164538177</v>
       </c>
       <c r="O33" t="n">
-        <v>0.09170689130833992</v>
+        <v>0.06974360400056741</v>
       </c>
       <c r="P33" t="n">
-        <v>0.07272889767581824</v>
+        <v>-0.1880003008003127</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.06194961017698398</v>
+        <v>-0.000664470438863789</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.08251682751287888</v>
+        <v>0.1113048174749881</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0204834866298353</v>
+        <v>0.08365785941011322</v>
       </c>
       <c r="T33" t="n">
-        <v>0.02668897636531258</v>
+        <v>0.06317598438993112</v>
       </c>
     </row>
     <row r="34">
@@ -2585,61 +2585,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03126428943673977</v>
+        <v>0.04413012965705573</v>
       </c>
       <c r="C34" t="n">
-        <v>0.05638737379596054</v>
+        <v>0.01167953954384421</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0467912983392814</v>
+        <v>-0.008465459180685154</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.1058498132620702</v>
+        <v>0.1276141220389009</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.05753001566010232</v>
+        <v>0.04186272629142131</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06590411017138406</v>
+        <v>0.06220474457315712</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01915114157785849</v>
+        <v>0.02577327089403571</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.0008866775484211712</v>
+        <v>0.01236245469680055</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.007073306240687493</v>
+        <v>-0.07439018836271984</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.06854170715805125</v>
+        <v>0.04628236962756058</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.1873037307310376</v>
+        <v>-0.03642907292225398</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2198696442455393</v>
+        <v>0.1230386327671756</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.1891897604883667</v>
+        <v>0.1060460966724402</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2054153294399244</v>
+        <v>-0.1396867075137896</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0306927888379935</v>
+        <v>-0.2345775487949123</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1317384147992287</v>
+        <v>-0.1100292783108623</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1430086653661981</v>
+        <v>0.0695792643463104</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.08315979781957052</v>
+        <v>0.05413295656726861</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.06519335776052543</v>
+        <v>0.1980190442143824</v>
       </c>
     </row>
     <row r="35">
@@ -2649,61 +2649,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.006776653469829097</v>
+        <v>0.02916057426291839</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02565741547948146</v>
+        <v>-0.004139595822963278</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.02504572986425866</v>
+        <v>-0.0135462345420734</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05215322786030811</v>
+        <v>-0.04483698390511233</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02544023713656534</v>
+        <v>-0.04195895695195642</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02812674584655047</v>
+        <v>-0.07244987761826589</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.03618788541676866</v>
+        <v>0.0476002492458218</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.05474130247331991</v>
+        <v>0.001514300497977505</v>
       </c>
       <c r="J35" t="n">
-        <v>0.006250901698769746</v>
+        <v>0.008249588641024704</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01401102460249893</v>
+        <v>-0.03622055005704582</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04647442815115073</v>
+        <v>-0.05259211428745839</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.1567716352438044</v>
+        <v>0.1023946564638807</v>
       </c>
       <c r="N35" t="n">
-        <v>0.06940723073039304</v>
+        <v>-0.008243905939079239</v>
       </c>
       <c r="O35" t="n">
-        <v>0.2175303291555306</v>
+        <v>0.01546728084090963</v>
       </c>
       <c r="P35" t="n">
-        <v>0.2497916148903201</v>
+        <v>0.0537574119882328</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.1182503228139302</v>
+        <v>0.01494957207473585</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.2662130420214093</v>
+        <v>-0.08835630695508176</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0192425140753432</v>
+        <v>0.2882202869619746</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.2191281677783777</v>
+        <v>-0.1516201989113022</v>
       </c>
     </row>
     <row r="36">
@@ -2713,61 +2713,61 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.001607564336166657</v>
+        <v>-0.004806318266978017</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.003413589176988911</v>
+        <v>0.008598891049817306</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01396976678914735</v>
+        <v>0.00488616598182254</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.001920980990077921</v>
+        <v>0.002934025782899152</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01395875834330779</v>
+        <v>0.01025721199724262</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004777990803382307</v>
+        <v>-0.008315826704498245</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.00722786010609584</v>
+        <v>0.006189502610474735</v>
       </c>
       <c r="I36" t="n">
-        <v>0.006012262943759871</v>
+        <v>0.001648639455634468</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00405934958421423</v>
+        <v>0.0003987588833763524</v>
       </c>
       <c r="K36" t="n">
-        <v>0.002379916620502739</v>
+        <v>-0.01381634347888814</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01061951745826688</v>
+        <v>0.01107814548867186</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.002070919320897819</v>
+        <v>-0.00626741144755968</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.001089886955157697</v>
+        <v>0.008699769537685141</v>
       </c>
       <c r="O36" t="n">
-        <v>0.004544766560962622</v>
+        <v>0.006583027894856442</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.006195500695409019</v>
+        <v>0.004921420688656252</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01126073345303631</v>
+        <v>-0.001361226652084541</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.004547439974413467</v>
+        <v>-0.005629658566485778</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01774328865358571</v>
+        <v>-0.009258245971122866</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.004953824145965503</v>
+        <v>0.009162318411013146</v>
       </c>
     </row>
     <row r="37">
@@ -2777,61 +2777,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.008814585414359576</v>
+        <v>-0.00777373926133212</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01726900585864057</v>
+        <v>0.04971006493625706</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05277305549074487</v>
+        <v>0.01147441021996397</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.02635026447787298</v>
+        <v>0.03413975793606608</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.003649132281379992</v>
+        <v>0.0195298835676116</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01582056336511221</v>
+        <v>0.002664771228313514</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03110890729014288</v>
+        <v>-0.02798079334924639</v>
       </c>
       <c r="I37" t="n">
-        <v>0.008745207404257459</v>
+        <v>-0.01710040089211395</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.01259001906024828</v>
+        <v>-0.0434109456924433</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.02210140311382753</v>
+        <v>0.04723707683572105</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.01845365140509507</v>
+        <v>-0.02047702018389904</v>
       </c>
       <c r="M37" t="n">
-        <v>0.05640378570699291</v>
+        <v>0.001846820413491769</v>
       </c>
       <c r="N37" t="n">
-        <v>0.02504689694527165</v>
+        <v>0.02394456181092417</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0878769321405181</v>
+        <v>-0.03055467117794093</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.02335201576779874</v>
+        <v>0.004743038507110607</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02605432944190094</v>
+        <v>-0.04544808878630482</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1241341908535586</v>
+        <v>-0.0400673295788097</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.06370623416253397</v>
+        <v>0.02458398725998058</v>
       </c>
       <c r="T37" t="n">
-        <v>0.05916366070209746</v>
+        <v>0.009568499997703577</v>
       </c>
     </row>
     <row r="38">
@@ -2841,61 +2841,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.004194705517903148</v>
+        <v>0.002949946897479824</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004815796070841942</v>
+        <v>-0.003967277027825446</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.007986964821448915</v>
+        <v>0.0006846587652976518</v>
       </c>
       <c r="E38" t="n">
-        <v>0.000813034425570804</v>
+        <v>0.005621315272526187</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.001251127176486199</v>
+        <v>0.004457448640340414</v>
       </c>
       <c r="G38" t="n">
-        <v>0.008837224276990392</v>
+        <v>0.002558957760970605</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.002867642120252051</v>
+        <v>-0.004394274661469547</v>
       </c>
       <c r="I38" t="n">
-        <v>0.009313287613137166</v>
+        <v>-0.001628935005158268</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.00195058501165296</v>
+        <v>-0.01076631598559451</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01277107347924631</v>
+        <v>-0.01531377280337534</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01720368381454366</v>
+        <v>0.004441236694103046</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.002289320016071657</v>
+        <v>0.0006456194950069591</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.005077276174944016</v>
+        <v>-0.01530570201644043</v>
       </c>
       <c r="O38" t="n">
-        <v>0.008465633222939735</v>
+        <v>-0.009366624770592573</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.006586283316668107</v>
+        <v>0.02205027110294693</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.009273244293815951</v>
+        <v>0.003293420373386444</v>
       </c>
       <c r="R38" t="n">
-        <v>0.003337585359494069</v>
+        <v>0.003770644921480641</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.0004801073711767049</v>
+        <v>0.009276344217262195</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01219781782511302</v>
+        <v>0.004829162813308406</v>
       </c>
     </row>
     <row r="39">
@@ -2905,61 +2905,61 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.01009803082451149</v>
+        <v>-0.006440573721754119</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.001721001163697806</v>
+        <v>-0.007327889319182371</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.007062165136197852</v>
+        <v>0.008537130065154148</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.00925269095299105</v>
+        <v>0.01047851166003142</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02101339896170779</v>
+        <v>-0.005129711025990591</v>
       </c>
       <c r="G39" t="n">
-        <v>0.002917468072304376</v>
+        <v>0.01933961798798003</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03001918284165031</v>
+        <v>-0.0364580635944178</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01790273583562743</v>
+        <v>-0.01557190125041796</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.008332092480956975</v>
+        <v>-0.0154477008458608</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.04071568653873637</v>
+        <v>0.02975604228291486</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.003878100023699806</v>
+        <v>-0.008051349366320475</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.01056455550036268</v>
+        <v>-0.006297054635914739</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.04765964868405222</v>
+        <v>-0.01949909166409151</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02572340712941322</v>
+        <v>-0.02803056967895436</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.01222327539046264</v>
+        <v>-0.004062644398826907</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.0005720267677427559</v>
+        <v>0.05151704487013926</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01382260156304145</v>
+        <v>-0.0242926331309484</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.06302434953348335</v>
+        <v>0.01864353189690874</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.02191370444117383</v>
+        <v>0.03589008575734132</v>
       </c>
     </row>
     <row r="40">
@@ -2969,61 +2969,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0004648719278176467</v>
+        <v>-0.003718341762267883</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.003959150050372748</v>
+        <v>0.0002477833875467077</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002136347744306458</v>
+        <v>0.002665879208577443</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.008144005467313909</v>
+        <v>0.007021892870452278</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.007078904941110926</v>
+        <v>0.006393160619008408</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0104545690405157</v>
+        <v>-0.0005005369982013104</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02381233799553165</v>
+        <v>0.00812697275213382</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.002394186574593429</v>
+        <v>-0.0002419443786785827</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01839211736532065</v>
+        <v>0.03022794071734633</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.005495145392394866</v>
+        <v>-0.01945312016420518</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02288145419082077</v>
+        <v>0.01281565018557843</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01093197577784713</v>
+        <v>-0.002355417186833103</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.009610834230077575</v>
+        <v>0.002409723935682492</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.01387347179412927</v>
+        <v>-0.02458750483206887</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.01374583987613222</v>
+        <v>0.007895845263523436</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.01884856929535661</v>
+        <v>0.006139853442009802</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.0560571997535739</v>
+        <v>-0.02356790124177665</v>
       </c>
       <c r="S40" t="n">
-        <v>0.01991530573854266</v>
+        <v>-0.01913958925375198</v>
       </c>
       <c r="T40" t="n">
-        <v>0.04100671809651257</v>
+        <v>0.0002386448120082286</v>
       </c>
     </row>
     <row r="41">
@@ -3033,61 +3033,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.01874539791601472</v>
+        <v>-0.01953859898501911</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.009950103718993266</v>
+        <v>-0.002353787733113003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006258582099365092</v>
+        <v>0.03220643966974052</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.01305468597498616</v>
+        <v>0.01731446677066306</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.009547569359867607</v>
+        <v>-0.01458527518619078</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.00410025836104711</v>
+        <v>0.005375357305197228</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.0006027476352159234</v>
+        <v>-0.01813047003362865</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.00115998820344358</v>
+        <v>0.002892133721923659</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.002171637550424542</v>
+        <v>0.04854224417433103</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.05332987756424039</v>
+        <v>0.02726567726658725</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.008275987408697668</v>
+        <v>0.003041158785414546</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01805132008535603</v>
+        <v>-0.03409893476609904</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.05895951873183272</v>
+        <v>-0.01028037879300068</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.09875925125725701</v>
+        <v>-0.06283008965246141</v>
       </c>
       <c r="P41" t="n">
-        <v>0.07837703667294262</v>
+        <v>-0.0001802153766894417</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.002112524926258714</v>
+        <v>0.08560996931630746</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.09375160160281068</v>
+        <v>0.04209308418134779</v>
       </c>
       <c r="S41" t="n">
-        <v>0.07889161160632027</v>
+        <v>-0.07223462328225692</v>
       </c>
       <c r="T41" t="n">
-        <v>0.07481046490825391</v>
+        <v>-0.05967770157948609</v>
       </c>
     </row>
     <row r="42">
@@ -3097,61 +3097,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.004995140579887744</v>
+        <v>-0.0167458750268001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01398263238322761</v>
+        <v>0.03513562559189035</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03408593582424686</v>
+        <v>0.001104001833825977</v>
       </c>
       <c r="E42" t="n">
-        <v>-9.839097687937562e-05</v>
+        <v>-0.01038048682929629</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04732195112575154</v>
+        <v>-0.0200844053480854</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.008360949812877336</v>
+        <v>0.01755572952163016</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03710079668434816</v>
+        <v>-0.06224577118112159</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04298357482920426</v>
+        <v>-0.02375332203662366</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0337667882494262</v>
+        <v>-0.027707280070335</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01273937514000466</v>
+        <v>-0.0001418494784669308</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01940162259321795</v>
+        <v>-0.04165969641945627</v>
       </c>
       <c r="M42" t="n">
-        <v>0.04335451898349499</v>
+        <v>-0.01691077596359757</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.03687986986913411</v>
+        <v>-0.0298205461134828</v>
       </c>
       <c r="O42" t="n">
-        <v>0.02975092744741275</v>
+        <v>-0.03792215086795233</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.1065653174610721</v>
+        <v>0.02453491049327988</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.06628428709622683</v>
+        <v>-0.04665800582610372</v>
       </c>
       <c r="R42" t="n">
-        <v>0.03690520074020115</v>
+        <v>-0.01136359307281175</v>
       </c>
       <c r="S42" t="n">
-        <v>0.02396020640396752</v>
+        <v>-0.03854305927123288</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0004012876256655821</v>
+        <v>0.1098980420837579</v>
       </c>
     </row>
     <row r="43">
@@ -3161,61 +3161,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0256522692044193</v>
+        <v>-0.02335635126515068</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.05186045530916701</v>
+        <v>-0.02334519879037539</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0003621558073141798</v>
+        <v>-0.006960901584622221</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.08742777630605715</v>
+        <v>0.04856313933142771</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01665840967147564</v>
+        <v>0.02701551582220883</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.003420853277713172</v>
+        <v>0.09726570189805833</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02295060986903818</v>
+        <v>-0.01098270387842838</v>
       </c>
       <c r="I43" t="n">
-        <v>0.04109142332261715</v>
+        <v>0.03322072648839832</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.004990359209608281</v>
+        <v>0.02317552506567598</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01229641485276783</v>
+        <v>0.03875489812380048</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.1091110221935106</v>
+        <v>0.05751332660003127</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2284829741720541</v>
+        <v>-0.1140925826078854</v>
       </c>
       <c r="N43" t="n">
-        <v>0.02254821535327335</v>
+        <v>0.09420676528031877</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.2866460724772073</v>
+        <v>0.04023807624105483</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.3047674396491639</v>
+        <v>-0.1315595084254891</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.06557050985243522</v>
+        <v>-0.1071894660628784</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2844252393992401</v>
+        <v>0.1316399880222698</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.07762703287162141</v>
+        <v>-0.3040000618175815</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2193442148179026</v>
+        <v>0.1583787832720072</v>
       </c>
     </row>
     <row r="44">
@@ -3225,61 +3225,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.05085948108934102</v>
+        <v>0.1956748883519432</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4664042977836594</v>
+        <v>0.2248700066886408</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1018076571603637</v>
+        <v>-0.1815498741334899</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.4067493133875319</v>
+        <v>0.4439942397600966</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.2039121757562799</v>
+        <v>-0.1249956165620159</v>
       </c>
       <c r="G44" t="n">
-        <v>0.203443361756178</v>
+        <v>0.1748287692284448</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.08784462008907924</v>
+        <v>0.2676646870740081</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.0859310606336805</v>
+        <v>-0.1301684557599545</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2129752359804772</v>
+        <v>0.1828053576871384</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2617599308912302</v>
+        <v>-0.2720120874931288</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1730351661121257</v>
+        <v>0.1492209427713012</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.1293980872794908</v>
+        <v>0.09880105376778385</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1082479325162072</v>
+        <v>-0.1273452745429351</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.1432004529029299</v>
+        <v>-0.04692601468961322</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.02753486687640625</v>
+        <v>0.156874583632561</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1280197598119227</v>
+        <v>0.00739545133349151</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.001131681799074032</v>
+        <v>0.1002977213044594</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.07580694041725342</v>
+        <v>0.0845639863925378</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.0790764450894879</v>
+        <v>-0.04505909197926795</v>
       </c>
     </row>
     <row r="45">
@@ -3289,61 +3289,61 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.03109323138492083</v>
+        <v>0.124812987052098</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1247619880128054</v>
+        <v>-0.008014580911386272</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.126255327435341</v>
+        <v>0.06204933537882767</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.03093350941702621</v>
+        <v>0.1033620329316405</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.09834544389400743</v>
+        <v>-0.01556064102916886</v>
       </c>
       <c r="G45" t="n">
-        <v>0.106467035188077</v>
+        <v>0.08643978547627057</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08046604404082124</v>
+        <v>0.04408086812580223</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03014520053195528</v>
+        <v>-0.07180155192614678</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.03907689720013898</v>
+        <v>0.03307496961928105</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.03471205445560283</v>
+        <v>0.05504921334841392</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.226312934191342</v>
+        <v>-0.03907776273271117</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.1703178801246961</v>
+        <v>-0.0094250057875275</v>
       </c>
       <c r="N45" t="n">
-        <v>0.03043691120125747</v>
+        <v>-0.04074466553387369</v>
       </c>
       <c r="O45" t="n">
-        <v>0.03280187421119057</v>
+        <v>0.1553829831562665</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.3099183819104028</v>
+        <v>-0.08899126009923188</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.1916070293008101</v>
+        <v>0.08179266606768698</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.1591654016202914</v>
+        <v>0.06051760601319748</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.06632038397609812</v>
+        <v>0.1442285528488213</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.04584964985386573</v>
+        <v>0.2652973299469691</v>
       </c>
     </row>
     <row r="46">
@@ -3353,61 +3353,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.03109323138492083</v>
+        <v>-0.124812987052098</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1247619880128054</v>
+        <v>0.008014580911386272</v>
       </c>
       <c r="D46" t="n">
-        <v>0.126255327435341</v>
+        <v>-0.06204933537882767</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03093350941702621</v>
+        <v>-0.1033620329316405</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09834544389400743</v>
+        <v>0.01556064102916886</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.106467035188077</v>
+        <v>-0.08643978547627057</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.08046604404082124</v>
+        <v>-0.04408086812580223</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.03014520053195528</v>
+        <v>0.07180155192614678</v>
       </c>
       <c r="J46" t="n">
-        <v>0.03907689720013898</v>
+        <v>-0.03307496961928105</v>
       </c>
       <c r="K46" t="n">
-        <v>0.03471205445560283</v>
+        <v>-0.05504921334841392</v>
       </c>
       <c r="L46" t="n">
-        <v>0.226312934191342</v>
+        <v>0.03907776273271117</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1703178801246961</v>
+        <v>0.0094250057875275</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.03043691120125747</v>
+        <v>0.04074466553387369</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.03280187421119057</v>
+        <v>-0.1553829831562665</v>
       </c>
       <c r="P46" t="n">
-        <v>0.3099183819104028</v>
+        <v>0.08899126009923188</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.1916070293008101</v>
+        <v>-0.08179266606768698</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1591654016202914</v>
+        <v>-0.06051760601319748</v>
       </c>
       <c r="S46" t="n">
-        <v>0.06632038397609812</v>
+        <v>-0.1442285528488213</v>
       </c>
       <c r="T46" t="n">
-        <v>0.04584964985386573</v>
+        <v>-0.2652973299469691</v>
       </c>
     </row>
     <row r="47">
@@ -3417,61 +3417,61 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.0002891016981737127</v>
+        <v>0.001846251274448156</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.002373300006284478</v>
+        <v>-0.006788517259435715</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.006822478639482724</v>
+        <v>0.001426375207933413</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.0009291042115256048</v>
+        <v>-0.003486856690136752</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002396743582844528</v>
+        <v>-0.001727449297967956</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0001101504731199876</v>
+        <v>0.006354655847559736</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.004688477681788265</v>
+        <v>-0.0007211880011435294</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.003406491446333094</v>
+        <v>0.004051644303347164</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005915618836083944</v>
+        <v>0.01540909342466666</v>
       </c>
       <c r="K47" t="n">
-        <v>0.005163897928217497</v>
+        <v>0.00235536193483892</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.003373614196894421</v>
+        <v>0.006089112927691469</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.008708433224958432</v>
+        <v>0.004657112456644572</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.003632517017516889</v>
+        <v>0.004670791062638405</v>
       </c>
       <c r="O47" t="n">
-        <v>0.004599822298920134</v>
+        <v>0.0005074221914645953</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.006881680784667342</v>
+        <v>0.01106401991068072</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.002935125764303373</v>
+        <v>0.007030106636972773</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02030080168777212</v>
+        <v>0.00794560004804541</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0171167894890773</v>
+        <v>0.006682158925317561</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0060038150372236</v>
+        <v>0.01969204788400885</v>
       </c>
     </row>
     <row r="48">
@@ -3481,61 +3481,61 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.006289730192428543</v>
+        <v>-0.01701812292180843</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.02154972544586136</v>
+        <v>0.0170395883966831</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04157422949085715</v>
+        <v>0.01571277932461391</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001759019546061456</v>
+        <v>0.001999905321728359</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01873945238214269</v>
+        <v>0.04558483205619777</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04512233151195827</v>
+        <v>-0.03414320285126873</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.03749801454439344</v>
+        <v>-0.002315721841661281</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01475853258111608</v>
+        <v>-0.03239796097720004</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04107565642422069</v>
+        <v>0.04718377868482611</v>
       </c>
       <c r="K48" t="n">
-        <v>0.007500137434508726</v>
+        <v>-0.03663428049005562</v>
       </c>
       <c r="L48" t="n">
-        <v>0.03221182374493378</v>
+        <v>0.01812745473664302</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.01235245789487034</v>
+        <v>-0.004312747934804104</v>
       </c>
       <c r="N48" t="n">
-        <v>0.01857743091746286</v>
+        <v>0.02362540052257418</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02607987508646699</v>
+        <v>0.002581589769376809</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.01585894341442625</v>
+        <v>0.03518854030525925</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.03943753613375404</v>
+        <v>-0.01804061959682567</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.0242277476596762</v>
+        <v>-0.02666308535008446</v>
       </c>
       <c r="S48" t="n">
-        <v>0.02925851259550773</v>
+        <v>-0.0116479962477531</v>
       </c>
       <c r="T48" t="n">
-        <v>0.006101626915467871</v>
+        <v>0.01295157454542579</v>
       </c>
     </row>
     <row r="49">
@@ -3545,61 +3545,61 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.0008958675516327026</v>
+        <v>0.002931137632582287</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01262287306243944</v>
+        <v>0.008673924163553212</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002075808510216228</v>
+        <v>-0.004383487508602592</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003976938330320073</v>
+        <v>-0.004527575185250845</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00703909705188024</v>
+        <v>-0.005253567216374994</v>
       </c>
       <c r="G49" t="n">
-        <v>0.005352905547906622</v>
+        <v>0.00456159553528497</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00093109354755644</v>
+        <v>-0.006607562319937653</v>
       </c>
       <c r="I49" t="n">
-        <v>0.008552119808215223</v>
+        <v>-0.005832612734883498</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.004664004142670061</v>
+        <v>2.348905837929434e-05</v>
       </c>
       <c r="K49" t="n">
-        <v>0.006121537035694236</v>
+        <v>-0.01003542337638743</v>
       </c>
       <c r="L49" t="n">
-        <v>0.003418010852610676</v>
+        <v>-0.005004134252695803</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.009234166989647356</v>
+        <v>-0.00335135089957441</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0007594772752206138</v>
+        <v>-0.007482057358846054</v>
       </c>
       <c r="O49" t="n">
-        <v>0.004777982950166274</v>
+        <v>-0.003539914855310177</v>
       </c>
       <c r="P49" t="n">
-        <v>0.003090373890664032</v>
+        <v>0.003096132020045815</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.001698113434463303</v>
+        <v>0.005849754416746803</v>
       </c>
       <c r="R49" t="n">
-        <v>0.01096453947693006</v>
+        <v>0.01042281727193037</v>
       </c>
       <c r="S49" t="n">
-        <v>-0.02508930413938051</v>
+        <v>0.02081711301507784</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.007017380666547923</v>
+        <v>0.009207819255779952</v>
       </c>
     </row>
     <row r="50">
@@ -3609,61 +3609,61 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0137985469231196</v>
+        <v>0.09053159676072674</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1862195035574342</v>
+        <v>0.04383622679453961</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.09090809585108009</v>
+        <v>-0.09868734754286539</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.173808742907502</v>
+        <v>0.2191141480012013</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.06359593102586454</v>
+        <v>-0.05398237500775511</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04763393967072384</v>
+        <v>0.01951694529417245</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.1215562353242572</v>
+        <v>0.06628488230637072</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.03513556999518819</v>
+        <v>0.02953555397690859</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0004733536550404892</v>
+        <v>0.0507639218260897</v>
       </c>
       <c r="K50" t="n">
-        <v>0.08258485190104732</v>
+        <v>-0.1316941439299185</v>
       </c>
       <c r="L50" t="n">
-        <v>0.07657013862824391</v>
+        <v>-0.03892995858552383</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.009412494656764426</v>
+        <v>0.05276384606544673</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.06208844217073339</v>
+        <v>-0.04427962518852575</v>
       </c>
       <c r="O50" t="n">
-        <v>0.006523119143755206</v>
+        <v>-0.08333919321794614</v>
       </c>
       <c r="P50" t="n">
-        <v>0.07436325948503543</v>
+        <v>0.04426651886428136</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.02708807139958633</v>
+        <v>0.02034768077589592</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0416466160474128</v>
+        <v>-0.01528722032717268</v>
       </c>
       <c r="S50" t="n">
-        <v>0.08260688535689266</v>
+        <v>-0.001660167904968068</v>
       </c>
       <c r="T50" t="n">
-        <v>0.05209504263082625</v>
+        <v>-0.07285507628047314</v>
       </c>
     </row>
     <row r="51">
@@ -3673,61 +3673,61 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.001031222731232998</v>
+        <v>0.01382283891833251</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.000367178588502859</v>
+        <v>-0.005313505937267511</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.006946758953459886</v>
+        <v>0.01849586384971188</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.004205584709615082</v>
+        <v>0.01305546560165222</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.02200614503342639</v>
+        <v>0.009919608097511775</v>
       </c>
       <c r="G51" t="n">
-        <v>0.003054609631170569</v>
+        <v>0.003368521313464429</v>
       </c>
       <c r="H51" t="n">
-        <v>0.02197750298994538</v>
+        <v>0.00851924718974011</v>
       </c>
       <c r="I51" t="n">
-        <v>0.006601623879802585</v>
+        <v>-0.00713080626099307</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01550483390286454</v>
+        <v>-0.01153163315151308</v>
       </c>
       <c r="K51" t="n">
-        <v>0.03263478069577665</v>
+        <v>0.008397801341227366</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.007036093892190095</v>
+        <v>0.02230557866711336</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.01932340530619441</v>
+        <v>0.004528891521382588</v>
       </c>
       <c r="N51" t="n">
-        <v>0.04156716194015771</v>
+        <v>0.01600904070294065</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.02186194191630243</v>
+        <v>0.06473199495796736</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.03376251235664907</v>
+        <v>0.04876882887290628</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.0102783681650255</v>
+        <v>-0.009025281609519265</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.0389380243050233</v>
+        <v>0.005522706357751664</v>
       </c>
       <c r="S51" t="n">
-        <v>0.02175864772480948</v>
+        <v>-0.04160850645371929</v>
       </c>
       <c r="T51" t="n">
-        <v>0.01911886822219949</v>
+        <v>-0.01734618284716828</v>
       </c>
     </row>
     <row r="52">
@@ -3737,61 +3737,61 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.007355070212117605</v>
+        <v>-0.0921137016642813</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1745521725792249</v>
+        <v>-0.05744771615807264</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06102729544294932</v>
+        <v>0.0674358166692088</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1732074739522611</v>
+        <v>-0.2261550870491941</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09490568780670887</v>
+        <v>0.005458951368388529</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1012739368348792</v>
+        <v>0.000341484860787182</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1408341310129372</v>
+        <v>-0.0651596573333683</v>
       </c>
       <c r="I52" t="n">
-        <v>0.008629785172387373</v>
+        <v>0.0117741816928209</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.05830545867553957</v>
+        <v>-0.1018486498424486</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.1340052049952445</v>
+        <v>0.1676106845202953</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.1017902651367038</v>
+        <v>-0.002588053493228186</v>
       </c>
       <c r="M52" t="n">
-        <v>0.05903095807243484</v>
+        <v>-0.05428575120909535</v>
       </c>
       <c r="N52" t="n">
-        <v>0.004816889055409104</v>
+        <v>0.007456450259218525</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.02011885756300619</v>
+        <v>0.01905810115444754</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.02095049681995681</v>
+        <v>-0.1423840399731734</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.05161400016954808</v>
+        <v>-0.006161640623270673</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.009746185247415466</v>
+        <v>0.0180591819995296</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.1256515310269066</v>
+        <v>0.02741739866604497</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.06429434206472212</v>
+        <v>0.0483498174424269</v>
       </c>
     </row>
     <row r="53">
@@ -3801,61 +3801,61 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.001581449677906485</v>
+        <v>0.001132136567582509</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.007060399525410604</v>
+        <v>-0.009702956911429214</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005950983081338432</v>
+        <v>-0.0006144058892339094</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0003466779742043183</v>
+        <v>0.001392121826676652</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003343120676480768</v>
+        <v>-0.0005401338662124053</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.002598024456538978</v>
+        <v>-0.006897978778839866</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.002497306539756918</v>
+        <v>-0.007857675811257006</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0006080457365424065</v>
+        <v>-0.002422197523919711</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.0009200217108346904</v>
+        <v>0.007024558649030212</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.006475001285394197</v>
+        <v>0.008579953454804458</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.004672673549035059</v>
+        <v>-0.009279795770836624</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.008422698480904227</v>
+        <v>-0.003543236405752443</v>
       </c>
       <c r="N53" t="n">
-        <v>0.005041326088152483</v>
+        <v>0.01214257457112872</v>
       </c>
       <c r="O53" t="n">
-        <v>0.008064956909686801</v>
+        <v>0.006304098991321568</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.00754817286757166</v>
+        <v>0.00238033798322049</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.005869198693942034</v>
+        <v>0.002492702052178434</v>
       </c>
       <c r="R53" t="n">
-        <v>-0.0306697930162547</v>
+        <v>-0.01033146980179846</v>
       </c>
       <c r="S53" t="n">
-        <v>0.01801818137656542</v>
+        <v>-0.001040674427153425</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.03351149177408185</v>
+        <v>0.001323629822312469</v>
       </c>
     </row>
     <row r="54">
@@ -3865,61 +3865,61 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.00474338663680578</v>
+        <v>0.0003252045919065199</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001021446831348741</v>
+        <v>-8.425639357816514e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.004015503675011737</v>
+        <v>0.006653869514363212</v>
       </c>
       <c r="E54" t="n">
-        <v>0.003756550147230314</v>
+        <v>-0.003404567964672224</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0004158128587420735</v>
+        <v>-0.0098314197061134</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.005058210641318666</v>
+        <v>0.006498174800039475</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.005087086936780847</v>
+        <v>0.006018021998557837</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.008425854290542252</v>
+        <v>0.007104712558305379</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.007857843919721054</v>
+        <v>0.02220425134896219</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.003247712176832681</v>
+        <v>0.008160432049343228</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.01485310784707101</v>
+        <v>-0.009263049554478094</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.009648533066864277</v>
+        <v>-0.005813155641669448</v>
       </c>
       <c r="N54" t="n">
-        <v>0.02124810534428079</v>
+        <v>-0.0141753712095297</v>
       </c>
       <c r="O54" t="n">
-        <v>0.01729448760883108</v>
+        <v>0.005003805640536062</v>
       </c>
       <c r="P54" t="n">
-        <v>0.003721643218836882</v>
+        <v>-0.01480802573293586</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.003709990499118989</v>
+        <v>-0.01889676003256157</v>
       </c>
       <c r="R54" t="n">
-        <v>0.002737173962183667</v>
+        <v>-0.01448093776346835</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.005504140958604454</v>
+        <v>0.03722483307363054</v>
       </c>
       <c r="T54" t="n">
-        <v>0.008245339531090778</v>
+        <v>0.004610569878269005</v>
       </c>
     </row>
     <row r="55">
@@ -3929,61 +3929,61 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.007378199664453327</v>
+        <v>0.006394873416016131</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.02436300023822896</v>
+        <v>-0.03809395450737713</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.03454150122191108</v>
+        <v>0.01348347309741101</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0294691412712301</v>
+        <v>0.02860922866060166</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.02348418273136788</v>
+        <v>0.0151476049812808</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.00220960392653237</v>
+        <v>0.02646709974089227</v>
       </c>
       <c r="H55" t="n">
-        <v>0.02036511715961845</v>
+        <v>0.005164962900543047</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0162282239279176</v>
+        <v>0.02318656333416112</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.009642780010115901</v>
+        <v>-0.03601153971160564</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02407540935209523</v>
+        <v>0.00210606200841621</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0135406152631076</v>
+        <v>0.009389054800000596</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01075165823239351</v>
+        <v>0.01058608868797568</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0279870978144632</v>
+        <v>0.04272142619912517</v>
       </c>
       <c r="O55" t="n">
-        <v>0.008958793035747368</v>
+        <v>0.01700195695854424</v>
       </c>
       <c r="P55" t="n">
-        <v>0.01544120119636509</v>
+        <v>0.02351639420537448</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.02366600216575383</v>
+        <v>-0.0279653147309225</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.001112605054308558</v>
+        <v>0.02494655974860055</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.01943767428346969</v>
+        <v>0.004074987228412581</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.006376232965859178</v>
+        <v>-0.02437555199853935</v>
       </c>
     </row>
     <row r="56">
@@ -3993,61 +3993,61 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.003356444891452808</v>
+        <v>0.001790998022702059</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0002905369079703242</v>
+        <v>-0.001929625577708951</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0009901210854081298</v>
+        <v>0.003261600861064841</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01381442219238723</v>
+        <v>-0.007972829208574443</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.01113202241980397</v>
+        <v>0.002355208490006515</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0006562598197191284</v>
+        <v>-0.0140375363080986</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.007045986076242076</v>
+        <v>0.009266619231957119</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.008554458918088099</v>
+        <v>0.004435757312066151</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.007553690915351574</v>
+        <v>0.002171710174641278</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.009319526549463494</v>
+        <v>0.00294732933939171</v>
       </c>
       <c r="L56" t="n">
-        <v>0.002799760359679894</v>
+        <v>-0.003309884573610066</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0001665964253675557</v>
+        <v>-0.009507141251368006</v>
       </c>
       <c r="N56" t="n">
-        <v>0.00516221010462938</v>
+        <v>0.001161552744719677</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.003313316224786038</v>
+        <v>-0.007802451603928008</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.004850962354451586</v>
+        <v>0.004983991865235289</v>
       </c>
       <c r="Q56" t="n">
-        <v>-0.02170158362395413</v>
+        <v>0.009294529721151053</v>
       </c>
       <c r="R56" t="n">
-        <v>-0.009864347435379081</v>
+        <v>0.01300363165257518</v>
       </c>
       <c r="S56" t="n">
-        <v>0.009001062255462447</v>
+        <v>0.008034255821827953</v>
       </c>
       <c r="T56" t="n">
-        <v>-0.01712930415352334</v>
+        <v>0.001644700418667937</v>
       </c>
     </row>
     <row r="57">
@@ -4057,61 +4057,61 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.002203152532959722</v>
+        <v>0.04217745701273194</v>
       </c>
       <c r="C57" t="n">
-        <v>0.063559041393618</v>
+        <v>-0.005960584635272041</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.05377089328168175</v>
+        <v>-0.007432415626202117</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.007255473894635095</v>
+        <v>0.0645365234887704</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.02534823921042718</v>
+        <v>-0.04664006892149272</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.003597057367127554</v>
+        <v>-0.06644457329238805</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.056700567508149</v>
+        <v>-0.03261300850311893</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0235916091823796</v>
+        <v>-0.02113739277615658</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.02163478873752462</v>
+        <v>0.03288382349364066</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.05566785652944975</v>
+        <v>-0.02366215415011251</v>
       </c>
       <c r="L57" t="n">
-        <v>0.002240647752654477</v>
+        <v>-0.07189649200998113</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.01348662748831674</v>
+        <v>-0.01630103757712129</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.07557967058601851</v>
+        <v>-0.05604915104250165</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.03949089757711364</v>
+        <v>-0.07748752858654685</v>
       </c>
       <c r="P57" t="n">
-        <v>0.1134015058031087</v>
+        <v>-0.05458351416929887</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.05893675740135141</v>
+        <v>0.05944431165506413</v>
       </c>
       <c r="R57" t="n">
-        <v>-0.1131288065732429</v>
+        <v>-0.01408734030109948</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1931288478425754</v>
+        <v>-0.03144349771379983</v>
       </c>
       <c r="T57" t="n">
-        <v>0.04640043594508662</v>
+        <v>-0.08832000762048869</v>
       </c>
     </row>
     <row r="58">
@@ -4121,61 +4121,61 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.00172012463728542</v>
+        <v>-0.002069168731463537</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.005903105551635426</v>
+        <v>0.004451713062784721</v>
       </c>
       <c r="D58" t="n">
-        <v>0.009290087987646635</v>
+        <v>0.009921025387944836</v>
       </c>
       <c r="E58" t="n">
-        <v>0.005329548784007682</v>
+        <v>-0.002301343293691781</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.005279017247931191</v>
+        <v>0.01505744234575992</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00944056882811202</v>
+        <v>-0.0003511252815811535</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.002406198147059656</v>
+        <v>0.003081995276062978</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.002198298447829604</v>
+        <v>0.004282508669598189</v>
       </c>
       <c r="J58" t="n">
-        <v>0.003611270708073983</v>
+        <v>-0.000908895983725706</v>
       </c>
       <c r="K58" t="n">
-        <v>0.003798838834046231</v>
+        <v>0.003974714342214878</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.01728750067692946</v>
+        <v>-9.377178180311059e-05</v>
       </c>
       <c r="M58" t="n">
-        <v>0.007908418966055359</v>
+        <v>0.01667727850191034</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.00928911793256971</v>
+        <v>0.005734906476692629</v>
       </c>
       <c r="O58" t="n">
-        <v>0.0159251514919791</v>
+        <v>-0.001960267746396446</v>
       </c>
       <c r="P58" t="n">
-        <v>0.02882208380506365</v>
+        <v>-0.006380431513554854</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.002979250891815007</v>
+        <v>-0.006670290829228546</v>
       </c>
       <c r="R58" t="n">
-        <v>-0.01116702744815255</v>
+        <v>0.007019712882209203</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.003231458351377822</v>
+        <v>0.007916080930730141</v>
       </c>
       <c r="T58" t="n">
-        <v>0.01402021840317543</v>
+        <v>-0.009402090966353976</v>
       </c>
     </row>
     <row r="59">
@@ -4185,61 +4185,61 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.008119646668219063</v>
+        <v>0.04426163732051077</v>
       </c>
       <c r="C59" t="n">
-        <v>0.09348809129888465</v>
+        <v>0.02546893019980649</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.03732464900429266</v>
+        <v>-0.1056345328949572</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.05414422919480932</v>
+        <v>0.0468979572862824</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02858717563221971</v>
+        <v>0.01667936864723489</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05453576779146591</v>
+        <v>0.05560009798776992</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.02362213371717347</v>
+        <v>0.09205442458099722</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.1182547455847427</v>
+        <v>0.006996937659735948</v>
       </c>
       <c r="J59" t="n">
-        <v>0.06544186817958927</v>
+        <v>0.002229958851396906</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1024139217592597</v>
+        <v>0.001296117629138911</v>
       </c>
       <c r="L59" t="n">
-        <v>0.02804097810473531</v>
+        <v>0.04423466011663381</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1335463992112381</v>
+        <v>0.09648922333798654</v>
       </c>
       <c r="N59" t="n">
-        <v>0.04064737564486138</v>
+        <v>-0.0150205911314454</v>
       </c>
       <c r="O59" t="n">
-        <v>0.07385480604025506</v>
+        <v>-0.05133999999190907</v>
       </c>
       <c r="P59" t="n">
-        <v>0.06654096252153589</v>
+        <v>0.07620278057961626</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.08549875289842856</v>
+        <v>-0.1497384963414516</v>
       </c>
       <c r="R59" t="n">
-        <v>0.09378659957430949</v>
+        <v>0.07827368585674468</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.05600821493315104</v>
+        <v>-0.01026607048812554</v>
       </c>
       <c r="T59" t="n">
-        <v>0.05690805776863148</v>
+        <v>-0.03274060535881993</v>
       </c>
     </row>
     <row r="60">
@@ -4249,61 +4249,61 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.01793259177396365</v>
+        <v>-0.0146824517933443</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0009552772154440404</v>
+        <v>0.01394336516790087</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02224177972552584</v>
+        <v>0.0008734536937260883</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0005914544309892524</v>
+        <v>0.006862088126997264</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.03889767458584416</v>
+        <v>-0.0150241848383353</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.04499384123258381</v>
+        <v>-0.05434819067940026</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.03884448344217127</v>
+        <v>0.01797279556582388</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.01876182509180218</v>
+        <v>0.05451282044781719</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.04917578485326179</v>
+        <v>-0.01492584643820105</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.03035252823401129</v>
+        <v>-0.01837586240539964</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.001136962316190328</v>
+        <v>-0.01225004655396785</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.06155182533891397</v>
+        <v>-0.02081816952288265</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.01224064979555715</v>
+        <v>-0.01502426116342882</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.06248794023400377</v>
+        <v>0.02712590252944501</v>
       </c>
       <c r="P60" t="n">
-        <v>0.00306603612832794</v>
+        <v>-0.0345834191764464</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01807724414571376</v>
+        <v>0.08000750043816826</v>
       </c>
       <c r="R60" t="n">
-        <v>0.03410656044287028</v>
+        <v>0.009832687061061534</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.05695490610684106</v>
+        <v>0.0005643266274211694</v>
       </c>
       <c r="T60" t="n">
-        <v>0.008967876887659206</v>
+        <v>-0.04112545798893931</v>
       </c>
     </row>
     <row r="61">
@@ -4313,61 +4313,61 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.00273412261171766</v>
+        <v>-0.03131264626141184</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.04582336845816108</v>
+        <v>-0.005191077442190254</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02802613728634233</v>
+        <v>0.009219809840610219</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0219320573472763</v>
+        <v>0.002339602872056954</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.009016499835657969</v>
+        <v>-0.01208824363472873</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.05469329175665162</v>
+        <v>0.004492160794830283</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.03022722541167069</v>
+        <v>-0.00224579407960065</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00822727287748636</v>
+        <v>0.06507413219190272</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.02621483547169374</v>
+        <v>0.04811416028060201</v>
       </c>
       <c r="K61" t="n">
-        <v>0.01381833854645025</v>
+        <v>0.01503421680530265</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.01098863359041773</v>
+        <v>0.03258978872781283</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.02314859667124219</v>
+        <v>-0.08576465935872322</v>
       </c>
       <c r="N61" t="n">
-        <v>0.01573386590798316</v>
+        <v>0.004451494443766016</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.06495649662063942</v>
+        <v>0.0614535739783714</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.04768553101095856</v>
+        <v>-0.003144037167258473</v>
       </c>
       <c r="Q61" t="n">
-        <v>-0.07112955593080898</v>
+        <v>0.05450972565020385</v>
       </c>
       <c r="R61" t="n">
-        <v>0.09636413756426679</v>
+        <v>0.005397582098123813</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.09869988298957161</v>
+        <v>0.01072387630707583</v>
       </c>
       <c r="T61" t="n">
-        <v>-0.02823823146825991</v>
+        <v>0.06263346131626478</v>
       </c>
     </row>
     <row r="62">
@@ -4377,61 +4377,61 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.004684300869978135</v>
+        <v>-0.009817472714102346</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.02381163854285414</v>
+        <v>-0.01516988559266365</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.0001748773020646755</v>
+        <v>-0.001236436123527651</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.01269748225198733</v>
+        <v>-0.002074759010262352</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01266526395955096</v>
+        <v>0.01104263776991921</v>
       </c>
       <c r="G62" t="n">
-        <v>0.003961262429873338</v>
+        <v>-0.001311799032146242</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0009057774679025414</v>
+        <v>-0.01956019401291519</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01867331647265753</v>
+        <v>-0.01081938039458244</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0009776344801032924</v>
+        <v>-0.01491326569973144</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.01662869265362872</v>
+        <v>-0.02119356148700161</v>
       </c>
       <c r="L62" t="n">
-        <v>0.02547683734914521</v>
+        <v>-0.007762977897101214</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.01298860825812035</v>
+        <v>0.01645102943311744</v>
       </c>
       <c r="N62" t="n">
-        <v>0.01098789933133033</v>
+        <v>0.0239447176833285</v>
       </c>
       <c r="O62" t="n">
-        <v>0.05456604257937273</v>
+        <v>0.002656794464123855</v>
       </c>
       <c r="P62" t="n">
-        <v>0.00801586013866354</v>
+        <v>0.003256217836868782</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.02449176838710845</v>
+        <v>-0.000463203432670335</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.01502867194254748</v>
+        <v>-0.05805796211185006</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.03386773055194793</v>
+        <v>0.03733948892651273</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.03889189343876048</v>
+        <v>-0.01175037621928742</v>
       </c>
     </row>
     <row r="63">
@@ -4441,61 +4441,61 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0002257547687541888</v>
+        <v>-0.0006216397083674757</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0002246125034113717</v>
+        <v>-0.001523207378972443</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.002827043337771827</v>
+        <v>-0.0006237956968225793</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001594418677533115</v>
+        <v>-0.006646793951817624</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.0002337326837890797</v>
+        <v>-0.0092246144281714</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.006400949344294574</v>
+        <v>0.005150883423619051</v>
       </c>
       <c r="H63" t="n">
-        <v>0.007638787420244142</v>
+        <v>0.004835738362289593</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.004233440154206032</v>
+        <v>-0.002888004702504915</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01068208243374008</v>
+        <v>0.002581846938395148</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.001055317989715051</v>
+        <v>0.003678757543191917</v>
       </c>
       <c r="L63" t="n">
-        <v>0.004335574995184105</v>
+        <v>0.01166797568419777</v>
       </c>
       <c r="M63" t="n">
-        <v>0.02199843625145647</v>
+        <v>0.0002446648784063258</v>
       </c>
       <c r="N63" t="n">
-        <v>0.00568921684559036</v>
+        <v>0.008405031358337072</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.01125322438974933</v>
+        <v>-0.0163991543546394</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0041699492027223</v>
+        <v>0.003668182353089077</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.01465251011561966</v>
+        <v>-0.008199317594962402</v>
       </c>
       <c r="R63" t="n">
-        <v>0.005679455351300472</v>
+        <v>0.0151922723332932</v>
       </c>
       <c r="S63" t="n">
-        <v>0.008983864475963586</v>
+        <v>-0.003004576895173896</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.004198405670215466</v>
+        <v>-0.003993706391614747</v>
       </c>
     </row>
     <row r="64">
@@ -4505,61 +4505,61 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.006026071258200688</v>
+        <v>-0.005775283093245709</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.008471290796207427</v>
+        <v>-0.01049915231300586</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.004466967756760462</v>
+        <v>-0.002689754048245671</v>
       </c>
       <c r="E64" t="n">
-        <v>0.005314337927374366</v>
+        <v>-0.006545824232660572</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0153461616059973</v>
+        <v>-0.0009743595058643879</v>
       </c>
       <c r="G64" t="n">
-        <v>0.003126892759420072</v>
+        <v>-0.0005135078884849656</v>
       </c>
       <c r="H64" t="n">
-        <v>0.01162326505345972</v>
+        <v>-0.006534574932465997</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.009335616222866777</v>
+        <v>-0.01134490046021305</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.0009850806246947345</v>
+        <v>-0.006688177911252416</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.000345617118465376</v>
+        <v>0.01277455766855417</v>
       </c>
       <c r="L64" t="n">
-        <v>0.005117036286604997</v>
+        <v>-0.01186937369451622</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.02145186310884151</v>
+        <v>0.01011936844408492</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.02031204500905729</v>
+        <v>-0.01324867542832137</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0016058991594329</v>
+        <v>-0.003177024100372878</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.01560138818639501</v>
+        <v>0.01289739478538227</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.0001123946922746233</v>
+        <v>0.02760869687478942</v>
       </c>
       <c r="R64" t="n">
-        <v>0.00540648846253463</v>
+        <v>-0.005526423757506881</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.01999696591227666</v>
+        <v>0.004348488740644489</v>
       </c>
       <c r="T64" t="n">
-        <v>0.01509443101401985</v>
+        <v>0.01526269681431932</v>
       </c>
     </row>
     <row r="65">
@@ -4569,61 +4569,61 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.003021925525885909</v>
+        <v>0.001917902102033575</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002670091051730533</v>
+        <v>0.005634615155648762</v>
       </c>
       <c r="D65" t="n">
-        <v>0.003437004318390289</v>
+        <v>0.01163078192890191</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0008854606116222248</v>
+        <v>-0.002980952696149126</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.008431726598887229</v>
+        <v>-0.006471663130548568</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0006589013241157333</v>
+        <v>0.01118080385388038</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02353039281789969</v>
+        <v>0.005050619564199896</v>
       </c>
       <c r="I65" t="n">
-        <v>0.008149791512441886</v>
+        <v>-0.01107031386577589</v>
       </c>
       <c r="J65" t="n">
-        <v>0.002519044842550377</v>
+        <v>-0.01624790380388499</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.01476171861241675</v>
+        <v>-0.0006263317989363386</v>
       </c>
       <c r="L65" t="n">
-        <v>0.01040699055626784</v>
+        <v>0.006519229077952277</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.001004731158392107</v>
+        <v>-0.00329604142665962</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.0163899534036473</v>
+        <v>0.01577147388676517</v>
       </c>
       <c r="O65" t="n">
-        <v>0.003813507238150369</v>
+        <v>-0.009059293837313871</v>
       </c>
       <c r="P65" t="n">
-        <v>0.01060099995737082</v>
+        <v>-0.01161204494321327</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.004962068404766205</v>
+        <v>0.0184348632476125</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.02759077518709983</v>
+        <v>-0.02020405254997566</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.02451538979834351</v>
+        <v>-0.001386876166674591</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.02089898250952255</v>
+        <v>-0.002796917624144302</v>
       </c>
     </row>
     <row r="66">
@@ -4633,61 +4633,61 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.004218265773651353</v>
+        <v>-0.008666882336606599</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.01231898584504388</v>
+        <v>0.004898640402076093</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01725957497935211</v>
+        <v>0.007876004746940798</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.006283689539380396</v>
+        <v>0.008574570769832252</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.01104563340636022</v>
+        <v>0.01939973085863814</v>
       </c>
       <c r="G66" t="n">
-        <v>0.007744930476769255</v>
+        <v>-0.0164133495915643</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.01739177491970114</v>
+        <v>-0.008752711146067354</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01493608152782136</v>
+        <v>0.0007836580597860467</v>
       </c>
       <c r="J66" t="n">
-        <v>0.006911003201341722</v>
+        <v>0.009055830543457561</v>
       </c>
       <c r="K66" t="n">
-        <v>0.00530732074331218</v>
+        <v>-0.01524349101305678</v>
       </c>
       <c r="L66" t="n">
-        <v>0.01000910601079893</v>
+        <v>0.009946666469267257</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.005275256318270022</v>
+        <v>-0.007575405499948559</v>
       </c>
       <c r="N66" t="n">
-        <v>0.01706808328279869</v>
+        <v>0.01142062077418409</v>
       </c>
       <c r="O66" t="n">
-        <v>0.01170159804432499</v>
+        <v>0.01330904720272286</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.005159662968998573</v>
+        <v>0.01525852246837189</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.03647582726125195</v>
+        <v>-0.01712133911907602</v>
       </c>
       <c r="R66" t="n">
-        <v>0.01029654323762874</v>
+        <v>-0.00867782019352464</v>
       </c>
       <c r="S66" t="n">
-        <v>0.02030723407629363</v>
+        <v>-0.008377034463601074</v>
       </c>
       <c r="T66" t="n">
-        <v>-0.01133173117019351</v>
+        <v>-0.001005650491015786</v>
       </c>
     </row>
     <row r="67">
@@ -4697,61 +4697,61 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.0004624720938912085</v>
+        <v>-0.0005060746767844813</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.002844255291705302</v>
+        <v>-0.001675083155120464</v>
       </c>
       <c r="D67" t="n">
-        <v>0.000395531633663609</v>
+        <v>0.001833913361004336</v>
       </c>
       <c r="E67" t="n">
-        <v>0.003966760925510729</v>
+        <v>-0.009966521550038491</v>
       </c>
       <c r="F67" t="n">
-        <v>0.002966952546293244</v>
+        <v>-0.002745335901710701</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.004933699694689419</v>
+        <v>0.003466751494724564</v>
       </c>
       <c r="H67" t="n">
-        <v>0.003315346159970861</v>
+        <v>-8.933988536969213e-05</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.005089415018900635</v>
+        <v>0.003331693875871654</v>
       </c>
       <c r="J67" t="n">
-        <v>0.00553044302207526</v>
+        <v>0.003448915499941231</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.006808074418454238</v>
+        <v>0.006875623681456161</v>
       </c>
       <c r="L67" t="n">
-        <v>0.003998712252476334</v>
+        <v>0.006736201666102547</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.00211983408695707</v>
+        <v>0.004553225662066216</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.01227414471555894</v>
+        <v>0.009960213408563874</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.005247366914874105</v>
+        <v>-0.01006576004524888</v>
       </c>
       <c r="P67" t="n">
-        <v>0.01164835538920991</v>
+        <v>0.008510626236148931</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.01334300997880228</v>
+        <v>0.01796277693585953</v>
       </c>
       <c r="R67" t="n">
-        <v>0.008797123809415282</v>
+        <v>0.007310960194938112</v>
       </c>
       <c r="S67" t="n">
-        <v>0.01236862460612423</v>
+        <v>-0.001271557232803989</v>
       </c>
       <c r="T67" t="n">
-        <v>0.04203134730258012</v>
+        <v>0.0002525564146993563</v>
       </c>
     </row>
     <row r="68">
@@ -4761,61 +4761,61 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0003678250632337501</v>
+        <v>-0.005606479174884904</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.002226312556111052</v>
+        <v>0.009197858408399368</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01167082283355639</v>
+        <v>0.007222691892427653</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000330799565638198</v>
+        <v>-0.006391989066788627</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.002244952236134476</v>
+        <v>0.002760165690704515</v>
       </c>
       <c r="G68" t="n">
-        <v>0.009840287554760609</v>
+        <v>0.00745649023143308</v>
       </c>
       <c r="H68" t="n">
-        <v>0.002928139156250017</v>
+        <v>0.003411109582710383</v>
       </c>
       <c r="I68" t="n">
-        <v>0.004004973933855354</v>
+        <v>-0.007488444655258254</v>
       </c>
       <c r="J68" t="n">
-        <v>0.005526763710686371</v>
+        <v>0.01017366029146362</v>
       </c>
       <c r="K68" t="n">
-        <v>0.01028454936916701</v>
+        <v>-0.01015826101691906</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.007807202664477866</v>
+        <v>0.0007966612361438747</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.003159403315592513</v>
+        <v>0.00765016613125298</v>
       </c>
       <c r="N68" t="n">
-        <v>0.004068882946354931</v>
+        <v>-0.001414408279677555</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.01782694938183852</v>
+        <v>0.002351186301445824</v>
       </c>
       <c r="P68" t="n">
-        <v>-0.01448082921991436</v>
+        <v>3.370518466398813e-05</v>
       </c>
       <c r="Q68" t="n">
-        <v>-0.004728483720433017</v>
+        <v>7.24048512160255e-05</v>
       </c>
       <c r="R68" t="n">
-        <v>0.001099313690931009</v>
+        <v>0.01867526655398512</v>
       </c>
       <c r="S68" t="n">
-        <v>-0.01468158519690971</v>
+        <v>0.003082393386194844</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.005331665505952519</v>
+        <v>0.007319613106152136</v>
       </c>
     </row>
     <row r="69">
@@ -4825,61 +4825,61 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.003539313342991073</v>
+        <v>-0.009231190873533622</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.004985493860618237</v>
+        <v>0.008137679602824806</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01344846718884226</v>
+        <v>-0.0004235317583078383</v>
       </c>
       <c r="E69" t="n">
-        <v>0.006992375664538346</v>
+        <v>-0.01631256363524328</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01848113428822368</v>
+        <v>-0.02633256956245224</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.04361567267101757</v>
+        <v>-0.0008489910273134733</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03506683703705792</v>
+        <v>-0.02382014410795435</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01369747548649706</v>
+        <v>-0.00109548819810817</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.006775958470016278</v>
+        <v>-0.03262702875895794</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.01443150590386004</v>
+        <v>0.02416500147306871</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01927135559309668</v>
+        <v>0.004197214678120099</v>
       </c>
       <c r="M69" t="n">
-        <v>0.006629743128805571</v>
+        <v>-0.02017487149872978</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.006517428451745918</v>
+        <v>0.006700592148357751</v>
       </c>
       <c r="O69" t="n">
-        <v>0.02191288427060079</v>
+        <v>0.002579557951688707</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.03177274852333473</v>
+        <v>0.002830918198199498</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.02023997734789829</v>
+        <v>-0.01078729089821678</v>
       </c>
       <c r="R69" t="n">
-        <v>0.01967898681365582</v>
+        <v>-0.04146313454363121</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.020596589440327</v>
+        <v>-0.001710061083776917</v>
       </c>
       <c r="T69" t="n">
-        <v>0.006434242635764322</v>
+        <v>0.03068061925709643</v>
       </c>
     </row>
     <row r="70">
@@ -4889,61 +4889,61 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.004141026061839754</v>
+        <v>-0.006141839711992885</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.01247535622934323</v>
+        <v>0.0005783358721102036</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01318326322893873</v>
+        <v>0.01277403337911942</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01673803544946439</v>
+        <v>-0.009670643550167899</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.01187944195228244</v>
+        <v>0.01186927732714162</v>
       </c>
       <c r="G70" t="n">
-        <v>0.008592387563255654</v>
+        <v>-0.02384866611357945</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.008453945686153515</v>
+        <v>0.007902356209860633</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.007262557225167532</v>
+        <v>-0.01030775525931285</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02150430839053404</v>
+        <v>0.01065232422817239</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01739299207131895</v>
+        <v>-0.006246871608594264</v>
       </c>
       <c r="L70" t="n">
-        <v>0.01117963385999164</v>
+        <v>0.006292967168384805</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.01855739068713552</v>
+        <v>0.01551331070308903</v>
       </c>
       <c r="N70" t="n">
-        <v>0.01238034672995071</v>
+        <v>0.005712819889272666</v>
       </c>
       <c r="O70" t="n">
-        <v>0.01273973549420914</v>
+        <v>0.008774036463863729</v>
       </c>
       <c r="P70" t="n">
-        <v>0.01382878813833353</v>
+        <v>0.0267578694269139</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02960193965265744</v>
+        <v>-0.008252034948365626</v>
       </c>
       <c r="R70" t="n">
-        <v>0.005159154227731553</v>
+        <v>-0.007898460171108332</v>
       </c>
       <c r="S70" t="n">
-        <v>-0.006485667216077537</v>
+        <v>-0.004952640920026361</v>
       </c>
       <c r="T70" t="n">
-        <v>0.01887191943138465</v>
+        <v>-0.01494607208549458</v>
       </c>
     </row>
     <row r="71">
@@ -4953,61 +4953,61 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.0003717473684944168</v>
+        <v>-0.006117080551503631</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.009446501627008327</v>
+        <v>-0.001595532720713344</v>
       </c>
       <c r="D71" t="n">
-        <v>0.005860135599288782</v>
+        <v>0.004638087941204985</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.0001716596915826516</v>
+        <v>-0.004918847380890995</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.005832736136903545</v>
+        <v>0.001774646018131532</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01291084063148371</v>
+        <v>0.0007350118627482467</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00285392590344229</v>
+        <v>0.0161203901709524</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.008903929514135062</v>
+        <v>-0.01763454771761645</v>
       </c>
       <c r="J71" t="n">
-        <v>0.00827625333962333</v>
+        <v>0.01827517531509382</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.007254192791787956</v>
+        <v>-0.008652497318454144</v>
       </c>
       <c r="L71" t="n">
-        <v>0.02663383154635846</v>
+        <v>0.0007899809970231224</v>
       </c>
       <c r="M71" t="n">
-        <v>0.008141687168477385</v>
+        <v>-0.01641227927293327</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.0118483019850326</v>
+        <v>0.02103764335282558</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.01512217401748919</v>
+        <v>-0.01386379083285673</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.006135969804965368</v>
+        <v>0.01019011156512739</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.03221560698848734</v>
+        <v>0.01706856307779314</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.03240033603815955</v>
+        <v>-0.0167352576725141</v>
       </c>
       <c r="S71" t="n">
-        <v>0.01254970551443794</v>
+        <v>-0.02263845128873893</v>
       </c>
       <c r="T71" t="n">
-        <v>0.037456637630936</v>
+        <v>0.006821099105750854</v>
       </c>
     </row>
     <row r="72">
@@ -5017,61 +5017,61 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9.980149255247887e-05</v>
+        <v>-0.001613644353879553</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.003927843603027204</v>
+        <v>-0.003695341249895392</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.0006917169488812393</v>
+        <v>0.0001961307776815439</v>
       </c>
       <c r="E72" t="n">
-        <v>0.008109420898254251</v>
+        <v>-0.00953391368492456</v>
       </c>
       <c r="F72" t="n">
-        <v>0.007341294304651466</v>
+        <v>-0.001571605121376433</v>
       </c>
       <c r="G72" t="n">
-        <v>0.003804375790942904</v>
+        <v>0.005535829214328484</v>
       </c>
       <c r="H72" t="n">
-        <v>0.01318869395053837</v>
+        <v>0.003868792142941396</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.008614019401121329</v>
+        <v>-0.0103554763557026</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0003734107524158952</v>
+        <v>0.0009235122848846025</v>
       </c>
       <c r="K72" t="n">
-        <v>0.005725144261202367</v>
+        <v>0.01067785546041315</v>
       </c>
       <c r="L72" t="n">
-        <v>0.003533580289499373</v>
+        <v>-0.003763971610208922</v>
       </c>
       <c r="M72" t="n">
-        <v>0.006311671746917687</v>
+        <v>-0.007604008851568238</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0001030560685106274</v>
+        <v>0.001484231603256539</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.01947516644021977</v>
+        <v>-0.001756428790362631</v>
       </c>
       <c r="P72" t="n">
-        <v>-0.002506308604015243</v>
+        <v>0.01202329363736997</v>
       </c>
       <c r="Q72" t="n">
-        <v>-0.004835174439951214</v>
+        <v>0.003938717100057438</v>
       </c>
       <c r="R72" t="n">
-        <v>0.007278035024630989</v>
+        <v>0.01102602611744287</v>
       </c>
       <c r="S72" t="n">
-        <v>0.01180839779612787</v>
+        <v>-0.01693490686213425</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.008595923909062943</v>
+        <v>-0.006967368941809457</v>
       </c>
     </row>
     <row r="73">
@@ -5081,61 +5081,61 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0003557528214846895</v>
+        <v>0.001624684639094673</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0004010344478169533</v>
+        <v>-0.003008207323763526</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.003869700761296399</v>
+        <v>-0.01014445314968941</v>
       </c>
       <c r="E73" t="n">
-        <v>0.003593710743175779</v>
+        <v>-0.003782435655426881</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01010435477619724</v>
+        <v>0.008463537796729006</v>
       </c>
       <c r="G73" t="n">
-        <v>0.002808331401818708</v>
+        <v>-0.0007071419864514868</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.003313518963866951</v>
+        <v>-0.005279246664128776</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.002694591174973549</v>
+        <v>-0.002528976203205303</v>
       </c>
       <c r="J73" t="n">
-        <v>0.01308695103378611</v>
+        <v>-0.004398224168262653</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.005494208890118978</v>
+        <v>0.007216009277367632</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.009164187078387329</v>
+        <v>0.01096942036698847</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.003595257321406665</v>
+        <v>0.01240032900257838</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.002981998716488541</v>
+        <v>-0.009905279755016155</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.005744336435200855</v>
+        <v>-9.875477697525746e-05</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.02177173910089522</v>
+        <v>-0.009690946183386092</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.004055010044475125</v>
+        <v>0.0012574154543171</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.004459270182703732</v>
+        <v>0.006862804785791573</v>
       </c>
       <c r="S73" t="n">
-        <v>-0.00454358623725286</v>
+        <v>-0.0021467907282824</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.01240179853386988</v>
+        <v>0.00926146154420754</v>
       </c>
     </row>
     <row r="74">
@@ -5145,61 +5145,61 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.007293831502928953</v>
+        <v>-0.005479607641011128</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.01446923306197598</v>
+        <v>-0.002831262324375098</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003672310569515316</v>
+        <v>0.005478952940367697</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00757066386274024</v>
+        <v>-0.00767367046522187</v>
       </c>
       <c r="F74" t="n">
-        <v>0.007015539557947648</v>
+        <v>0.02040890866183982</v>
       </c>
       <c r="G74" t="n">
-        <v>0.01787913747430434</v>
+        <v>0.01007902968494145</v>
       </c>
       <c r="H74" t="n">
-        <v>0.01216394692123615</v>
+        <v>0.009673105467808817</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.01738503128779539</v>
+        <v>-0.007546778631725246</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.009627478674823402</v>
+        <v>-0.0009536779496281322</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.00656100452959804</v>
+        <v>0.02282017632111882</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.0002126562536539867</v>
+        <v>-0.01581993837306562</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.008786976496295056</v>
+        <v>-0.004123947125948056</v>
       </c>
       <c r="N74" t="n">
-        <v>0.01621530228532868</v>
+        <v>-0.01346148725306481</v>
       </c>
       <c r="O74" t="n">
-        <v>0.005133032760767879</v>
+        <v>-0.004010435041518999</v>
       </c>
       <c r="P74" t="n">
-        <v>0.007642839000567786</v>
+        <v>0.004056984581423882</v>
       </c>
       <c r="Q74" t="n">
-        <v>-0.01713764868360985</v>
+        <v>-0.007706163227972693</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.008536150530237924</v>
+        <v>-0.01207628173599781</v>
       </c>
       <c r="S74" t="n">
-        <v>0.01475877023983438</v>
+        <v>0.02073439372548361</v>
       </c>
       <c r="T74" t="n">
-        <v>-0.01762211846001521</v>
+        <v>-0.01917105806226366</v>
       </c>
     </row>
     <row r="75">
@@ -5209,61 +5209,61 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.0001485671321612468</v>
+        <v>-0.00664055490753299</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.001003628863668346</v>
+        <v>0.01897534210424277</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02499833065100051</v>
+        <v>0.004461706461284475</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001201700967543412</v>
+        <v>-0.007895715837113047</v>
       </c>
       <c r="F75" t="n">
-        <v>0.001308758232861944</v>
+        <v>0.01468955890730207</v>
       </c>
       <c r="G75" t="n">
-        <v>0.01499124760679785</v>
+        <v>0.004005355939229048</v>
       </c>
       <c r="H75" t="n">
-        <v>0.007296357288082883</v>
+        <v>-0.01123715969465703</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02097972112143581</v>
+        <v>-0.01455246192305584</v>
       </c>
       <c r="J75" t="n">
-        <v>0.002866494687023003</v>
+        <v>-0.004466399733068884</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.009614524804141338</v>
+        <v>-0.007596459857793145</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.008744634023220054</v>
+        <v>0.003632241880190143</v>
       </c>
       <c r="M75" t="n">
-        <v>0.01973090645314888</v>
+        <v>-0.01178648434832441</v>
       </c>
       <c r="N75" t="n">
-        <v>0.02868407428204367</v>
+        <v>0.03034153289677546</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.009821613605680483</v>
+        <v>0.001852028139335906</v>
       </c>
       <c r="P75" t="n">
-        <v>0.01571521545711353</v>
+        <v>-0.01450160357436225</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.006914130516087426</v>
+        <v>-0.01440159548141945</v>
       </c>
       <c r="R75" t="n">
-        <v>0.00208153377147456</v>
+        <v>0.01973470463898647</v>
       </c>
       <c r="S75" t="n">
-        <v>3.338125372606872e-05</v>
+        <v>0.005822764713839494</v>
       </c>
       <c r="T75" t="n">
-        <v>-0.01042019509703889</v>
+        <v>-0.02667651535952491</v>
       </c>
     </row>
     <row r="76">
@@ -5273,61 +5273,61 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.00236350534237418</v>
+        <v>0.01465712285708679</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01710135621671525</v>
+        <v>0.009673647550271397</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.004859488545644381</v>
+        <v>0.02927378936293339</v>
       </c>
       <c r="E76" t="n">
-        <v>0.05251075031709595</v>
+        <v>-0.05113872184757383</v>
       </c>
       <c r="F76" t="n">
-        <v>0.04525029060622327</v>
+        <v>-0.008203888877681725</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01714915963791526</v>
+        <v>0.04505517095141164</v>
       </c>
       <c r="H76" t="n">
-        <v>0.05471364101302238</v>
+        <v>-0.06643108221717026</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0906172705531363</v>
+        <v>-0.0385166654421071</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.006919265393504985</v>
+        <v>-0.0375987677413628</v>
       </c>
       <c r="K76" t="n">
-        <v>0.005200967550486018</v>
+        <v>-0.018551316397515</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.06463587169400277</v>
+        <v>-0.002452761049248594</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.02198791578660833</v>
+        <v>0.02203575299916117</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.04358353208060257</v>
+        <v>-0.06269160617411337</v>
       </c>
       <c r="O76" t="n">
-        <v>0.01916858720823697</v>
+        <v>0.04860890108666972</v>
       </c>
       <c r="P76" t="n">
-        <v>-0.1451021273157193</v>
+        <v>-0.05726330844654978</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.04657697047600197</v>
+        <v>-0.0218904004215633</v>
       </c>
       <c r="R76" t="n">
-        <v>-0.03851332252484698</v>
+        <v>-0.007736753321277272</v>
       </c>
       <c r="S76" t="n">
-        <v>0.06356572253903982</v>
+        <v>-0.0346927512114823</v>
       </c>
       <c r="T76" t="n">
-        <v>-0.03948253189397243</v>
+        <v>0.1434609714305564</v>
       </c>
     </row>
     <row r="77">
@@ -5337,61 +5337,61 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.003651866153618004</v>
+        <v>-0.006103516081235998</v>
       </c>
       <c r="C77" t="n">
-        <v>0.005528776621222436</v>
+        <v>0.00889797377911308</v>
       </c>
       <c r="D77" t="n">
-        <v>0.007799288591593096</v>
+        <v>-0.00788248451417493</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.0148923728015762</v>
+        <v>0.003545061948745321</v>
       </c>
       <c r="F77" t="n">
-        <v>0.00578255954209035</v>
+        <v>-0.01714195157060827</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.01165125642832159</v>
+        <v>0.005248648604357416</v>
       </c>
       <c r="H77" t="n">
-        <v>0.007382535648170271</v>
+        <v>-0.002541438464609934</v>
       </c>
       <c r="I77" t="n">
-        <v>0.002926588319626883</v>
+        <v>5.293656713806062e-05</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.007582826508021049</v>
+        <v>-0.005341052589133815</v>
       </c>
       <c r="K77" t="n">
-        <v>0.003698409054342703</v>
+        <v>-0.008837426495124558</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.01459027508730579</v>
+        <v>-0.0117548608931435</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.00227149021185081</v>
+        <v>0.009359215276384822</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01048179111285866</v>
+        <v>0.01462352551904231</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.0004220456926600394</v>
+        <v>0.02101630755935618</v>
       </c>
       <c r="P77" t="n">
-        <v>-0.006704013460202171</v>
+        <v>-0.01770291057103559</v>
       </c>
       <c r="Q77" t="n">
-        <v>-0.003866815634467014</v>
+        <v>-0.005067830949773578</v>
       </c>
       <c r="R77" t="n">
-        <v>-0.02875869682489103</v>
+        <v>-0.003725494789050357</v>
       </c>
       <c r="S77" t="n">
-        <v>0.009458373216888675</v>
+        <v>0.0003342037740442754</v>
       </c>
       <c r="T77" t="n">
-        <v>0.01182763627049065</v>
+        <v>-0.00549648273463886</v>
       </c>
     </row>
     <row r="78">
@@ -5401,1469 +5401,1405 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.006455318573739721</v>
+        <v>-0.02322238701019741</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.02460303465473102</v>
+        <v>0.02323197440105645</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04927074798504763</v>
+        <v>0.01978045112421406</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0002997035866895583</v>
+        <v>0.001661927018962966</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.03095622502189545</v>
+        <v>0.05360258683765947</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06247381479752059</v>
+        <v>-0.0281891281727076</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.02152017300444672</v>
+        <v>0.0171106285037247</v>
       </c>
       <c r="I78" t="n">
-        <v>0.006437289945431742</v>
+        <v>-0.04974116262186565</v>
       </c>
       <c r="J78" t="n">
-        <v>0.04619465684057857</v>
+        <v>0.04429317317247267</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.01137174081531944</v>
+        <v>-0.02761283191254372</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01050647781604971</v>
+        <v>0.019410236426351</v>
       </c>
       <c r="M78" t="n">
-        <v>-8.803302007220714e-05</v>
+        <v>-0.004618419858588436</v>
       </c>
       <c r="N78" t="n">
-        <v>0.03152945095363133</v>
+        <v>0.03199550850626331</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0127964175638288</v>
+        <v>0.0007812412244825757</v>
       </c>
       <c r="P78" t="n">
-        <v>-0.01858409544029618</v>
+        <v>8.668886687091466e-05</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.01523113131556213</v>
+        <v>-0.01966839988493032</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.03945330482840678</v>
+        <v>-0.007915752167942129</v>
       </c>
       <c r="S78" t="n">
-        <v>0.03987310691980441</v>
+        <v>0.001936415144460741</v>
       </c>
       <c r="T78" t="n">
-        <v>0.000644341574851125</v>
+        <v>0.00855656951027277</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>jalur_pendaftaran_kampus_jalur undangan</t>
+          <t>jalur_pendaftaran_kampus_seleksi rapot</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.006277816778474e-06</v>
+        <v>-0.01688329549525486</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.005200295962364095</v>
+        <v>-0.02657485890858962</v>
       </c>
       <c r="D79" t="n">
-        <v>0.005504712636177011</v>
+        <v>-0.05940293377725857</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001125784640415007</v>
+        <v>0.06263208925964173</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.00320307721014836</v>
+        <v>-0.06473969272101385</v>
       </c>
       <c r="G79" t="n">
-        <v>0.002803418938500279</v>
+        <v>-0.04784976530051404</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.006301847309425839</v>
+        <v>0.05633924443301384</v>
       </c>
       <c r="I79" t="n">
-        <v>0.006435820184416944</v>
+        <v>0.02414992002629708</v>
       </c>
       <c r="J79" t="n">
-        <v>0.005356983270250559</v>
+        <v>-0.0758243276838992</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02030938768919185</v>
+        <v>-0.007195557328288828</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.002363053317542513</v>
+        <v>0.0921893095748728</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01192710254389073</v>
+        <v>-0.06747026286815903</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01345763132564137</v>
+        <v>-0.1646959067094893</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.002507026007225527</v>
+        <v>-0.1065935407456177</v>
       </c>
       <c r="P79" t="n">
-        <v>0.002631245300206283</v>
+        <v>0.02244880423657517</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.01445512119422614</v>
+        <v>0.1603686735044789</v>
       </c>
       <c r="R79" t="n">
-        <v>0.009484594388602878</v>
+        <v>0.05559334330950622</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.02759909887920082</v>
+        <v>0.04187383032265888</v>
       </c>
       <c r="T79" t="n">
-        <v>0.0003339252371374192</v>
+        <v>-0.03263356442454351</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>jalur_pendaftaran_kampus_seleksi rapot</t>
+          <t>jalur_pendaftaran_kampus_snmptn</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.03341377242077966</v>
+        <v>0.001286113719640329</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02629295869155786</v>
+        <v>0.009934268229358174</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.05094633441392431</v>
+        <v>0.008573523705592551</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.04796877011902827</v>
+        <v>-0.006276029111733441</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.04232836720687593</v>
+        <v>-0.007616747244236498</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.08401975403948372</v>
+        <v>0.007205146780367638</v>
       </c>
       <c r="H80" t="n">
-        <v>0.004177459798841665</v>
+        <v>0.003554052461629375</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.0580817985929789</v>
+        <v>-0.001016636506364084</v>
       </c>
       <c r="J80" t="n">
-        <v>0.001459522297671965</v>
+        <v>-0.01216641188475648</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.08467930205278187</v>
+        <v>-0.006765875316730421</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1664877953239873</v>
+        <v>-0.009189840740998564</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.03524210373895538</v>
+        <v>-0.002170499983986538</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.09275015362928614</v>
+        <v>0.01715874523839886</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.1599343895166996</v>
+        <v>-0.01998026241481814</v>
       </c>
       <c r="P80" t="n">
-        <v>0.002160714401554059</v>
+        <v>0.008757543423716846</v>
       </c>
       <c r="Q80" t="n">
-        <v>-0.06289680621123317</v>
+        <v>0.0151428921695076</v>
       </c>
       <c r="R80" t="n">
-        <v>0.4700899729854256</v>
+        <v>-0.02032382027355195</v>
       </c>
       <c r="S80" t="n">
-        <v>-0.01748309224877226</v>
+        <v>0.005953711965822645</v>
       </c>
       <c r="T80" t="n">
-        <v>-0.05243236310102581</v>
+        <v>0.01137960629606371</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>jalur_pendaftaran_kampus_snmptn</t>
+          <t>jalur_pendaftaran_kampus_ujian tes</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.002459286555090975</v>
+        <v>0.01680363808367205</v>
       </c>
       <c r="C81" t="n">
-        <v>0.005167484247690837</v>
+        <v>-0.01498464959669728</v>
       </c>
       <c r="D81" t="n">
-        <v>0.007487594200012612</v>
+        <v>0.0353774965330675</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001234677940678155</v>
+        <v>-0.03326791054883237</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.006570189148339417</v>
+        <v>0.03947017726083706</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.001471626493698055</v>
+        <v>0.03553870338238313</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01307988831443521</v>
+        <v>-0.04775487132985622</v>
       </c>
       <c r="I81" t="n">
-        <v>0.004109892614862661</v>
+        <v>-0.01440558205900723</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.01178480744296547</v>
+        <v>0.04780453193394416</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.003766268099990545</v>
+        <v>0.03520730154847108</v>
       </c>
       <c r="L81" t="n">
-        <v>0.02197190630308837</v>
+        <v>-0.05497731411574979</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.003144013878893377</v>
+        <v>0.0122125298456439</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.02282911368514607</v>
+        <v>0.1162045976904789</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02316451674892934</v>
+        <v>0.07027004465853513</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0126872069045801</v>
+        <v>-0.006164769666761292</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.01849617593088507</v>
+        <v>-0.05385879079270233</v>
       </c>
       <c r="R81" t="n">
-        <v>-0.04984465743163601</v>
+        <v>0.007083832682252354</v>
       </c>
       <c r="S81" t="n">
-        <v>-0.01879772211225443</v>
+        <v>0.03618203754431353</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.01493849443774394</v>
+        <v>-0.06660263363852921</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>jalur_pendaftaran_kampus_ujian tes</t>
+          <t>jalur_pendaftaran_kampus_utbk/snbp</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01196525757847109</v>
+        <v>0.02811944678337591</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0211670214009567</v>
+        <v>-0.0005047079042408703</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.002567597709392888</v>
+        <v>0.0035539469285594</v>
       </c>
       <c r="E82" t="n">
-        <v>0.02523784471229727</v>
+        <v>-0.02829513856678416</v>
       </c>
       <c r="F82" t="n">
-        <v>0.03257278974458728</v>
+        <v>-0.00357437256263788</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04942186864960221</v>
+        <v>0.02804639470611353</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01052071068002806</v>
+        <v>-0.02670761560390187</v>
       </c>
       <c r="I82" t="n">
-        <v>0.03161275175707737</v>
+        <v>0.04096052459380183</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.016106699827136</v>
+        <v>0.001234087051372653</v>
       </c>
       <c r="K82" t="n">
-        <v>-8.493024298557653e-05</v>
+        <v>0.01520438950421656</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.1144462749851487</v>
+        <v>-0.03567753025133199</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.0003626375273016317</v>
+        <v>0.05268743758870532</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09810611565835732</v>
+        <v>-0.01528647024469417</v>
       </c>
       <c r="O82" t="n">
-        <v>0.07933758060747491</v>
+        <v>0.03450620971806211</v>
       </c>
       <c r="P82" t="n">
-        <v>0.07849455532538951</v>
+        <v>-0.007425356289365953</v>
       </c>
       <c r="Q82" t="n">
-        <v>-0.01656381171802095</v>
+        <v>-0.09691654404658029</v>
       </c>
       <c r="R82" t="n">
-        <v>-0.2217602285880728</v>
+        <v>-0.03071210876121422</v>
       </c>
       <c r="S82" t="n">
-        <v>0.006651200907858648</v>
+        <v>-0.0862801987513</v>
       </c>
       <c r="T82" t="n">
-        <v>0.05252976206602531</v>
+        <v>0.08479650499137519</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>jalur_pendaftaran_kampus_utbk/snbp</t>
+          <t>tipe_sma_boarding school</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0290944067367585</v>
+        <v>0.006507842216336974</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01398113245758066</v>
+        <v>0.003915411970801815</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01654841128951315</v>
+        <v>-0.004156966483693542</v>
       </c>
       <c r="E83" t="n">
-        <v>0.03496313204052447</v>
+        <v>0.006285164027449084</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04470250930058159</v>
+        <v>0.006271877509604912</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.01755646542411965</v>
+        <v>0.00273388831200988</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.00733857412760268</v>
+        <v>-0.004705691766357959</v>
       </c>
       <c r="I83" t="n">
-        <v>0.006559455771563322</v>
+        <v>0.00664738038579576</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.01753682863037868</v>
+        <v>-0.002017721380796676</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0758944444675429</v>
+        <v>-0.0005003609048781122</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.06756657605312846</v>
+        <v>0.004953751193868208</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02918117583318265</v>
+        <v>-0.0179625706424259</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.03799572173605652</v>
+        <v>0.005333969703018878</v>
       </c>
       <c r="O83" t="n">
-        <v>0.04756494629635221</v>
+        <v>-0.0108033245440108</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.07068561303123176</v>
+        <v>0.001108343183902289</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.0640552475115</v>
+        <v>-0.004701682385416509</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.1397576797010218</v>
+        <v>-0.0008774496460717335</v>
       </c>
       <c r="S83" t="n">
-        <v>0.007897232195675879</v>
+        <v>0.0004239380531776453</v>
       </c>
       <c r="T83" t="n">
-        <v>0.002035192390265343</v>
+        <v>0.01653378565974769</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>tipe_sma_boarding school</t>
+          <t>tipe_sma_ma/man</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.005240627897642142</v>
+        <v>-0.01473441655405733</v>
       </c>
       <c r="C84" t="n">
-        <v>0.006837133001281483</v>
+        <v>0.01341956327890333</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.001250994743424327</v>
+        <v>0.02245405250805008</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.004928366265405261</v>
+        <v>-0.03323324740303886</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.001972330288122227</v>
+        <v>0.04916150482204306</v>
       </c>
       <c r="G84" t="n">
-        <v>0.001641280776081177</v>
+        <v>0.06231299094874749</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.0061257834865868</v>
+        <v>0.007333545875841099</v>
       </c>
       <c r="I84" t="n">
-        <v>0.007888806848383107</v>
+        <v>0.03931244148677031</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.006981761636767921</v>
+        <v>0.01110273506956466</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.01032377379728156</v>
+        <v>-0.03856992101582761</v>
       </c>
       <c r="L84" t="n">
-        <v>0.008076702116624302</v>
+        <v>-0.04097460327795214</v>
       </c>
       <c r="M84" t="n">
-        <v>0.008849406743304143</v>
+        <v>-0.01128388258589357</v>
       </c>
       <c r="N84" t="n">
-        <v>-0.003806131203527959</v>
+        <v>0.009623106293815435</v>
       </c>
       <c r="O84" t="n">
-        <v>0.007377345763426497</v>
+        <v>-0.0425242154611671</v>
       </c>
       <c r="P84" t="n">
-        <v>-0.00950189405179222</v>
+        <v>0.02037655362839489</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.0117215313645834</v>
+        <v>-0.04160358830211789</v>
       </c>
       <c r="R84" t="n">
-        <v>0.01047467176803837</v>
+        <v>0.0602921698630273</v>
       </c>
       <c r="S84" t="n">
-        <v>0.007277155788469766</v>
+        <v>-0.004461135564122943</v>
       </c>
       <c r="T84" t="n">
-        <v>0.01415339412624562</v>
+        <v>0.04232229831065009</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>tipe_sma_ma/man</t>
+          <t>tipe_sma_mengulang kuliah</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.009437871426277673</v>
+        <v>0.001323241770838852</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.02173214323388813</v>
+        <v>-0.0006328481692881979</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02646319925070053</v>
+        <v>-0.001452916289407434</v>
       </c>
       <c r="E85" t="n">
-        <v>0.00904198656887875</v>
+        <v>-0.00945765295189115</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01491579625882701</v>
+        <v>-0.002724216808618492</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05048331862308319</v>
+        <v>-0.00806228348377022</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.01358758170559855</v>
+        <v>0.001546627416031705</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01019950805903311</v>
+        <v>-0.003406597941219304</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.06539330442055093</v>
+        <v>-0.005115926459185006</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0438039955991924</v>
+        <v>0.002814832485711456</v>
       </c>
       <c r="L85" t="n">
-        <v>-0.009230413976718851</v>
+        <v>4.246431192999054e-05</v>
       </c>
       <c r="M85" t="n">
-        <v>0.06641885262361169</v>
+        <v>0.006123370917130466</v>
       </c>
       <c r="N85" t="n">
-        <v>-0.008483727661145669</v>
+        <v>-0.00696909831852915</v>
       </c>
       <c r="O85" t="n">
-        <v>-0.01806602549955582</v>
+        <v>-0.0005358531552609988</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.03222475593309233</v>
+        <v>-0.01592362209648144</v>
       </c>
       <c r="Q85" t="n">
-        <v>-0.01572944495664761</v>
+        <v>-0.01397743596203666</v>
       </c>
       <c r="R85" t="n">
-        <v>-0.0813253506106026</v>
+        <v>0.007593740433646111</v>
       </c>
       <c r="S85" t="n">
-        <v>-0.02504785060861621</v>
+        <v>-0.004946074113782226</v>
       </c>
       <c r="T85" t="n">
-        <v>0.06904348265695846</v>
+        <v>0.02535695834004204</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>tipe_sma_mengulang kuliah</t>
+          <t>tipe_sma_sma/sman</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.004174392626905877</v>
+        <v>-0.02296193310271047</v>
       </c>
       <c r="C86" t="n">
-        <v>0.003288570258823597</v>
+        <v>-0.03593190931442515</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.001472650418299465</v>
+        <v>-0.01653363547098115</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01379267931104202</v>
+        <v>0.005525905795585534</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0004525404808940447</v>
+        <v>-0.04586629231629472</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0005485013871722556</v>
+        <v>-0.02154673474427522</v>
       </c>
       <c r="H86" t="n">
-        <v>0.001219447353469541</v>
+        <v>-0.01864148285437852</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.001946209746930237</v>
+        <v>-0.05616778152871767</v>
       </c>
       <c r="J86" t="n">
-        <v>0.002304265174923725</v>
+        <v>-0.02741098483110231</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.003678361191885323</v>
+        <v>0.05492423473558013</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.01361954557128275</v>
+        <v>0.02614653277016669</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01372676527207197</v>
+        <v>0.04349437590480427</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.003075728779269111</v>
+        <v>0.04848825969983814</v>
       </c>
       <c r="O86" t="n">
-        <v>0.009407705930011301</v>
+        <v>0.06978867958292195</v>
       </c>
       <c r="P86" t="n">
-        <v>-0.02552070200333803</v>
+        <v>0.009275719603524656</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.01144133559794574</v>
+        <v>0.128160309721294</v>
       </c>
       <c r="R86" t="n">
-        <v>0.003389663909402294</v>
+        <v>-0.06374126446332021</v>
       </c>
       <c r="S86" t="n">
-        <v>0.007011288510943525</v>
+        <v>0.08200565869376308</v>
       </c>
       <c r="T86" t="n">
-        <v>-0.01535602747909337</v>
+        <v>-0.1625482825902883</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>tipe_sma_sma/sman</t>
+          <t>tipe_sma_smk/smkn</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.02853744088107543</v>
+        <v>0.02986526566959197</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.02867419812183348</v>
+        <v>0.01922978223400821</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01132319921305119</v>
+        <v>-0.0003105342639679133</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.02576349626460494</v>
+        <v>0.03087983053189543</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02222572733695843</v>
+        <v>-0.006842873206734688</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.04478871717208409</v>
+        <v>-0.03543786103271192</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0660275045306464</v>
+        <v>0.01446700132886368</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.0220252654799422</v>
+        <v>0.01361455759737096</v>
       </c>
       <c r="J87" t="n">
-        <v>0.06092416376734716</v>
+        <v>0.0234418976015194</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.05697241647725056</v>
+        <v>-0.01866878530058585</v>
       </c>
       <c r="L87" t="n">
-        <v>0.007632158933143302</v>
+        <v>0.009831855001987201</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.1300829786719392</v>
+        <v>-0.02037129359361533</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0321091734052278</v>
+        <v>-0.05647623737814327</v>
       </c>
       <c r="O87" t="n">
-        <v>0.02971004493552437</v>
+        <v>-0.01592528642248305</v>
       </c>
       <c r="P87" t="n">
-        <v>0.158365774495023</v>
+        <v>-0.01483699431934042</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.0698017103041047</v>
+        <v>-0.06787760307172302</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1086718219651776</v>
+        <v>-0.00326719618728142</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.03045470685520524</v>
+        <v>-0.07302238706903559</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.1589214363689722</v>
+        <v>0.07833524027984848</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>tipe_sma_smk/smkn</t>
+          <t>latar_belakang_sma_negeri</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01803333418406149</v>
+        <v>0.0012340744483399</v>
       </c>
       <c r="C88" t="n">
-        <v>0.04028063809561652</v>
+        <v>0.02925322172356723</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01241635487592553</v>
+        <v>0.02779044613566228</v>
       </c>
       <c r="E88" t="n">
-        <v>0.007857196650089396</v>
+        <v>0.03183427610192173</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.03562173378855727</v>
+        <v>-0.04236503189749238</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.006787380839908078</v>
+        <v>0.09620715192539427</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.04753358669193063</v>
+        <v>0.1606549624856804</v>
       </c>
       <c r="I88" t="n">
-        <v>0.00588316031945626</v>
+        <v>-0.009009869121439905</v>
       </c>
       <c r="J88" t="n">
-        <v>0.00914663711504796</v>
+        <v>0.005491200539741363</v>
       </c>
       <c r="K88" t="n">
-        <v>0.02717055586722502</v>
+        <v>0.1026531769660887</v>
       </c>
       <c r="L88" t="n">
-        <v>0.007141098498233964</v>
+        <v>-0.09585720442200592</v>
       </c>
       <c r="M88" t="n">
-        <v>0.04108795403295143</v>
+        <v>-0.1269315948574569</v>
       </c>
       <c r="N88" t="n">
-        <v>-0.01674358576128502</v>
+        <v>0.04988302313391703</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.02842907112940631</v>
+        <v>0.06652218923167523</v>
       </c>
       <c r="P88" t="n">
-        <v>-0.09111842250680048</v>
+        <v>-0.09605698491223182</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.06236828829822333</v>
+        <v>0.1144490019260426</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.04121080703201564</v>
+        <v>0.2648850912361406</v>
       </c>
       <c r="S88" t="n">
-        <v>0.04121411316440812</v>
+        <v>0.0284118775442242</v>
       </c>
       <c r="T88" t="n">
-        <v>0.09108058706486143</v>
+        <v>-0.3571080084561279</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>latar_belakang_sma_negeri</t>
+          <t>latar_belakang_sma_swasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.000833374475291916</v>
+        <v>-0.0012340744483399</v>
       </c>
       <c r="C89" t="n">
-        <v>0.03250714497800589</v>
+        <v>-0.02925322172356723</v>
       </c>
       <c r="D89" t="n">
-        <v>0.005509518247261472</v>
+        <v>-0.02779044613566228</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.04181708162588416</v>
+        <v>-0.03183427610192173</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.07615024582845763</v>
+        <v>0.04236503189749238</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0431701443361058</v>
+        <v>-0.09620715192539427</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1323884362255833</v>
+        <v>-0.1606549624856804</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.1263146861432473</v>
+        <v>0.009009869121439905</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.1381917908723964</v>
+        <v>-0.005491200539741363</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.01889568126903157</v>
+        <v>-0.1026531769660887</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.1333572217508672</v>
+        <v>0.09585720442200592</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02682804780539559</v>
+        <v>0.1269315948574569</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1533997420850776</v>
+        <v>-0.04988302313391703</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.3134921475417435</v>
+        <v>-0.06652218923167523</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3275136792579361</v>
+        <v>0.09605698491223182</v>
       </c>
       <c r="Q89" t="n">
-        <v>-0.1843984277266562</v>
+        <v>-0.1144490019260426</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.05282197174741252</v>
+        <v>-0.2648850912361406</v>
       </c>
       <c r="S89" t="n">
-        <v>-0.2591375474373868</v>
+        <v>-0.0284118775442242</v>
       </c>
       <c r="T89" t="n">
-        <v>0.1224693905879773</v>
+        <v>0.3571080084561279</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>latar_belakang_sma_swasta</t>
+          <t>jenis_tempat_tinggal_keluarga_bersama anggota keluarga besar</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.0008333744752919246</v>
+        <v>-0.003579366386786225</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.0325071449780059</v>
+        <v>0.0112961217361112</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.005509518247261497</v>
+        <v>0.0008587355447913104</v>
       </c>
       <c r="E90" t="n">
-        <v>0.04181708162588413</v>
+        <v>-0.01074198776305088</v>
       </c>
       <c r="F90" t="n">
-        <v>0.07615024582845759</v>
+        <v>0.01563194772869484</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04317014433610582</v>
+        <v>-0.009001746963599665</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.1323884362255833</v>
+        <v>0.01826026701123171</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1263146861432473</v>
+        <v>-0.02909515325864871</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1381917908723964</v>
+        <v>0.05143032952003175</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01889568126903164</v>
+        <v>-0.03283473804268373</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1333572217508672</v>
+        <v>-0.03163057741743221</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.02682804780539561</v>
+        <v>0.00580611755357538</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.1533997420850775</v>
+        <v>0.01333678387192899</v>
       </c>
       <c r="O90" t="n">
-        <v>0.3134921475417434</v>
+        <v>0.0106149094785571</v>
       </c>
       <c r="P90" t="n">
-        <v>-0.3275136792579361</v>
+        <v>0.01365467003323166</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.1843984277266563</v>
+        <v>0.0276102896541668</v>
       </c>
       <c r="R90" t="n">
-        <v>0.05282197174741254</v>
+        <v>-0.0179010346043805</v>
       </c>
       <c r="S90" t="n">
-        <v>0.2591375474373867</v>
+        <v>-0.04884993967915635</v>
       </c>
       <c r="T90" t="n">
-        <v>-0.1224693905879773</v>
+        <v>0.003681410528259981</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>jenis_tempat_tinggal_keluarga_bersama anggota keluarga besar</t>
+          <t>jenis_tempat_tinggal_keluarga_kontrakan</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.003952660503763078</v>
+        <v>0.008531631558382123</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.002722334424315835</v>
+        <v>0.03133347033105327</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02044628583986994</v>
+        <v>-0.007704337113283761</v>
       </c>
       <c r="E91" t="n">
-        <v>0.005196190328543673</v>
+        <v>0.01598261720594623</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003555245778316195</v>
+        <v>0.01529543741614874</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04346249988789636</v>
+        <v>-0.01271897217939283</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.02358336787049703</v>
+        <v>0.03426983945949582</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.01745357280203047</v>
+        <v>-0.02390912881910409</v>
       </c>
       <c r="J91" t="n">
-        <v>0.004942923729138326</v>
+        <v>-0.02099928012444417</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01958662281531862</v>
+        <v>-0.009900438116355022</v>
       </c>
       <c r="L91" t="n">
-        <v>0.01281681007655431</v>
+        <v>-0.009307792072576785</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.01034718998400271</v>
+        <v>-0.03140388380162294</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.02048013829234378</v>
+        <v>-0.002750735667730262</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.02301849097278729</v>
+        <v>0.00199065626967635</v>
       </c>
       <c r="P91" t="n">
-        <v>-0.01005647176780178</v>
+        <v>0.0009719731721939135</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.02640161843787012</v>
+        <v>0.03769782875928961</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.05122617572941674</v>
+        <v>0.008500977076866537</v>
       </c>
       <c r="S91" t="n">
-        <v>0.01145294138381153</v>
+        <v>-0.03875266310015179</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.0008986967841788431</v>
+        <v>0.0322579836272803</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>jenis_tempat_tinggal_keluarga_kontrakan</t>
+          <t>jenis_tempat_tinggal_keluarga_rumah</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.01183576777089465</v>
+        <v>-0.00451437134941214</v>
       </c>
       <c r="C92" t="n">
-        <v>0.02175733389375602</v>
+        <v>-0.05246345225607406</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02143732998729182</v>
+        <v>0.01769626267370001</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.005076901296172125</v>
+        <v>-0.004123085302719958</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.02565135275374721</v>
+        <v>-0.02477912637836911</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02286947316803169</v>
+        <v>0.02954599567521556</v>
       </c>
       <c r="H92" t="n">
-        <v>0.01169893302020671</v>
+        <v>-0.05703648971013017</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.01100273777165558</v>
+        <v>0.05040338602754962</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.01217491562372773</v>
+        <v>-0.04165427676536807</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.001836902004156627</v>
+        <v>0.04842773176141225</v>
       </c>
       <c r="L92" t="n">
-        <v>0.03455714136821322</v>
+        <v>0.03733104718668357</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.01188075110232402</v>
+        <v>0.03540473689192257</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.04367031549235346</v>
+        <v>-0.01745135524297796</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.04403518399291732</v>
+        <v>0.002466298686351721</v>
       </c>
       <c r="P92" t="n">
-        <v>-0.03157859433259743</v>
+        <v>-0.02804889401998392</v>
       </c>
       <c r="Q92" t="n">
-        <v>-0.04971231763885871</v>
+        <v>-0.07480913534916241</v>
       </c>
       <c r="R92" t="n">
-        <v>0.06898031992925854</v>
+        <v>0.009175099487876634</v>
       </c>
       <c r="S92" t="n">
-        <v>0.05088394029678044</v>
+        <v>0.09971653768937089</v>
       </c>
       <c r="T92" t="n">
-        <v>0.01329564362389145</v>
+        <v>-0.0231060765763904</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>jenis_tempat_tinggal_keluarga_rumah</t>
+          <t>jenis_tempat_tinggal_keluarga_rumah dinas</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.005349808813024969</v>
+        <v>-0.0004378938221837612</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.02983190243404543</v>
+        <v>0.009833860188909582</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.04857692245087526</v>
+        <v>-0.01085066110520754</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.000308381650921822</v>
+        <v>-0.001117544140175383</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02092369131599351</v>
+        <v>-0.006148258766474487</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06283358200405399</v>
+        <v>-0.007825276532223077</v>
       </c>
       <c r="H93" t="n">
-        <v>0.02525932015186982</v>
+        <v>0.004506383239402683</v>
       </c>
       <c r="I93" t="n">
-        <v>0.03840488667098461</v>
+        <v>0.002600896050203217</v>
       </c>
       <c r="J93" t="n">
-        <v>0.002412299793293125</v>
+        <v>0.01122322736978052</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.01584521821335912</v>
+        <v>-0.00569255560237344</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.06753954861033321</v>
+        <v>0.003607322303325465</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02058455210653628</v>
+        <v>-0.009806970643874964</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06113099346577096</v>
+        <v>0.006865307038779241</v>
       </c>
       <c r="O93" t="n">
-        <v>0.08532785096926991</v>
+        <v>-0.01507186443458523</v>
       </c>
       <c r="P93" t="n">
-        <v>0.04600935348581994</v>
+        <v>0.01342225081455841</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.07144387748319292</v>
+        <v>0.009501016935705967</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.02771247672458858</v>
+        <v>0.0002249580396373907</v>
       </c>
       <c r="S93" t="n">
-        <v>-0.09092507284636568</v>
+        <v>-0.01211393491006277</v>
       </c>
       <c r="T93" t="n">
-        <v>-0.01455374619644738</v>
+        <v>-0.01283331757914983</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>jenis_tempat_tinggal_keluarga_rumah dinas</t>
+          <t>cara_belajar_mahasiswa_aural</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.002533298454106605</v>
+        <v>0.04912165730497119</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01079690296460523</v>
+        <v>0.01299230393837984</v>
       </c>
       <c r="D94" t="n">
-        <v>0.006693306623713524</v>
+        <v>-0.03534904512151726</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0001890926185502645</v>
+        <v>-0.009806328476733534</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001172415659437469</v>
+        <v>-0.007298116270319191</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.003498391051874073</v>
+        <v>-0.01312290502904761</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.01337488530157951</v>
+        <v>-0.001649884817137221</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.009948576097298571</v>
+        <v>0.06620594587985061</v>
       </c>
       <c r="J94" t="n">
-        <v>0.004819692101296289</v>
+        <v>0.05935881451037846</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.001904502597802864</v>
+        <v>0.03218034973623492</v>
       </c>
       <c r="L94" t="n">
-        <v>0.02016559716556568</v>
+        <v>0.03091185421490047</v>
       </c>
       <c r="M94" t="n">
-        <v>0.001643388979790466</v>
+        <v>-0.05575342718196561</v>
       </c>
       <c r="N94" t="n">
-        <v>0.003019460318926183</v>
+        <v>0.01665558929067388</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.01827417600356532</v>
+        <v>0.0616645936047071</v>
       </c>
       <c r="P94" t="n">
-        <v>-0.00437428738542069</v>
+        <v>0.03196685499664325</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.004670058593535922</v>
+        <v>-0.0782169271433262</v>
       </c>
       <c r="R94" t="n">
-        <v>0.009958332524746889</v>
+        <v>-0.1012587276678449</v>
       </c>
       <c r="S94" t="n">
-        <v>0.02858819116577358</v>
+        <v>-0.1120591611764892</v>
       </c>
       <c r="T94" t="n">
-        <v>0.002156799356734852</v>
+        <v>0.09003575776988648</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>cara_belajar_mahasiswa_aural</t>
+          <t>cara_belajar_mahasiswa_kinestetic</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.04246861631948754</v>
+        <v>-0.01955840449477102</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03434437660932696</v>
+        <v>-0.001193498388285442</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.01746494720358996</v>
+        <v>-0.02360346112710577</v>
       </c>
       <c r="E95" t="n">
-        <v>0.00367498267227255</v>
+        <v>-0.006442580670595892</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01201878845922275</v>
+        <v>0.02807915461195535</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05946364079068711</v>
+        <v>0.008907893738681229</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.05964972242417894</v>
+        <v>-0.0144980706095857</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.01967280244362049</v>
+        <v>0.01044589952837757</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.0004954891745170439</v>
+        <v>-0.03056915436609255</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.008338812308103348</v>
+        <v>0.00293094401336062</v>
       </c>
       <c r="L95" t="n">
-        <v>0.01930562534532995</v>
+        <v>0.01639882321669363</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.01883022062353408</v>
+        <v>0.03786084364415809</v>
       </c>
       <c r="N95" t="n">
-        <v>0.03649893396574665</v>
+        <v>-0.01218299817945274</v>
       </c>
       <c r="O95" t="n">
-        <v>0.009104736046535862</v>
+        <v>-0.03731624550361806</v>
       </c>
       <c r="P95" t="n">
-        <v>-0.1088889398241417</v>
+        <v>0.04691480795455338</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.1868114891469098</v>
+        <v>-0.07762706486129815</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.2497028177739705</v>
+        <v>0.01923546533588975</v>
       </c>
       <c r="S95" t="n">
-        <v>-0.01990274990359228</v>
+        <v>0.04371886415911103</v>
       </c>
       <c r="T95" t="n">
-        <v>0.5091456570242191</v>
+        <v>-0.1608992613123694</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>cara_belajar_mahasiswa_kinestetic</t>
+          <t>cara_belajar_mahasiswa_reading</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.01950866372696581</v>
+        <v>-0.03344344763644054</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.008975791499921207</v>
+        <v>-0.01927302416554826</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01240643650932282</v>
+        <v>-0.01195772974893025</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.004018261561704216</v>
+        <v>-0.04592888875226339</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0387618410692156</v>
+        <v>-0.06255138864291157</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01132346252057634</v>
+        <v>-0.0728342762550805</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.003146122034717174</v>
+        <v>-0.04086898940860623</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.0178896909413767</v>
+        <v>-0.04069434124194438</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01442153019558912</v>
+        <v>-0.0532317534773944</v>
       </c>
       <c r="K96" t="n">
-        <v>0.01402717973229271</v>
+        <v>0.03005002341485688</v>
       </c>
       <c r="L96" t="n">
-        <v>0.03370538575382306</v>
+        <v>0.06846443293326777</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04884717602616701</v>
+        <v>-0.01182075799098887</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06293349169380426</v>
+        <v>-0.1362496009684602</v>
       </c>
       <c r="O96" t="n">
-        <v>0.06246938888419197</v>
+        <v>-0.0528143434297313</v>
       </c>
       <c r="P96" t="n">
-        <v>0.1873236050309957</v>
+        <v>-0.1243896315781071</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.06483398742968995</v>
+        <v>0.1689320379465641</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.004150873099934864</v>
+        <v>-0.1156211210569465</v>
       </c>
       <c r="S96" t="n">
-        <v>0.01355651211692287</v>
+        <v>0.1075311018195566</v>
       </c>
       <c r="T96" t="n">
-        <v>0.06200913946968473</v>
+        <v>0.03333618882938968</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>cara_belajar_mahasiswa_reading</t>
+          <t>cara_belajar_mahasiswa_visual</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.03745145694140981</v>
+        <v>0.003880194826240396</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.007388943097741585</v>
+        <v>0.007474218615453848</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.007146010551429122</v>
+        <v>0.07091023599755324</v>
       </c>
       <c r="E97" t="n">
-        <v>0.06747160519064495</v>
+        <v>0.06217779789959285</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02875819303166546</v>
+        <v>0.04177035030127538</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.07198177484887562</v>
+        <v>0.07704928754544693</v>
       </c>
       <c r="H97" t="n">
-        <v>0.02189781904001824</v>
+        <v>0.05701694483532917</v>
       </c>
       <c r="I97" t="n">
-        <v>0.00753662393169873</v>
+        <v>-0.03595750416628385</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05378354392552788</v>
+        <v>0.02444209333310847</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.1547764364148035</v>
+        <v>-0.06516131716445255</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04856831049703732</v>
+        <v>-0.1157751103648619</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.1267486727347886</v>
+        <v>0.02971334152879657</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.09366517262534191</v>
+        <v>0.131777009857239</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.000713110364119484</v>
+        <v>0.02846599532864221</v>
       </c>
       <c r="P97" t="n">
-        <v>-0.05029056789035656</v>
+        <v>0.0455079686269105</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.07858155414148366</v>
+        <v>-0.01308804594193988</v>
       </c>
       <c r="R97" t="n">
-        <v>0.1083618581634089</v>
+        <v>0.1976443833889019</v>
       </c>
       <c r="S97" t="n">
-        <v>-0.2742562964723015</v>
+        <v>-0.03919080480217833</v>
       </c>
       <c r="T97" t="n">
-        <v>-0.1431807505337226</v>
+        <v>0.03752731471309308</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>cara_belajar_mahasiswa_visual</t>
+          <t>akses_pembelajaran_daring</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01449150434888806</v>
+        <v>0.01648634459771455</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.01797964201166422</v>
+        <v>-0.04073277311821213</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01220452124569626</v>
+        <v>0.06944658199088517</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.06712832630121332</v>
+        <v>0.06202936454110933</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.07953882256010376</v>
+        <v>0.00965433746779755</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1201219531189864</v>
+        <v>-0.01489073744401969</v>
       </c>
       <c r="H98" t="n">
-        <v>0.04089802541887776</v>
+        <v>0.0491610877297816</v>
       </c>
       <c r="I98" t="n">
-        <v>0.03002586945329845</v>
+        <v>0.01282634226855946</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.06770958494659991</v>
+        <v>-0.02107936369897759</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1490880689906141</v>
+        <v>0.1316151247766722</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.1015793215961903</v>
+        <v>0.01996472080313633</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0967317173321556</v>
+        <v>0.1862376880803577</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.005767253034208971</v>
+        <v>0.07415767553690154</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.07086101456660825</v>
+        <v>0.1825647896939156</v>
       </c>
       <c r="P98" t="n">
-        <v>-0.02814409731649738</v>
+        <v>-0.0641641117393346</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.3302270307180837</v>
+        <v>0.1752557732979313</v>
       </c>
       <c r="R98" t="n">
-        <v>0.1454918327104964</v>
+        <v>-0.003931193694827499</v>
       </c>
       <c r="S98" t="n">
-        <v>0.2806025342589707</v>
+        <v>0.2891449685530492</v>
       </c>
       <c r="T98" t="n">
-        <v>-0.4279740459601811</v>
+        <v>0.04534558161838975</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>akses_pembelajaran_daring</t>
+          <t>akses_pembelajaran_luring</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.007398173788503917</v>
+        <v>-0.01648634459771457</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.03240813372658952</v>
+        <v>0.04073277311821216</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.03724296006196508</v>
+        <v>-0.0694465819908852</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.04145437698623502</v>
+        <v>-0.06202936454110934</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1005957258796493</v>
+        <v>-0.009654337467797517</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02257081052611443</v>
+        <v>0.01489073744401967</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06353693881787519</v>
+        <v>-0.04916108772978157</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.05881519471577022</v>
+        <v>-0.01282634226855954</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05359894929701606</v>
+        <v>0.02107936369897759</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.05149174884131526</v>
+        <v>-0.1316151247766722</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.2381925358167314</v>
+        <v>-0.01996472080313625</v>
       </c>
       <c r="M99" t="n">
-        <v>-0.27717961493137</v>
+        <v>-0.1862376880803576</v>
       </c>
       <c r="N99" t="n">
-        <v>-0.07629814192901981</v>
+        <v>-0.0741576755369016</v>
       </c>
       <c r="O99" t="n">
-        <v>0.1911395150132134</v>
+        <v>-0.1825647896939158</v>
       </c>
       <c r="P99" t="n">
-        <v>0.08775230161070172</v>
+        <v>0.06416411173933466</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.1441098864006417</v>
+        <v>-0.1752557732979314</v>
       </c>
       <c r="R99" t="n">
-        <v>0.2480382285535151</v>
+        <v>0.003931193694827449</v>
       </c>
       <c r="S99" t="n">
-        <v>0.1246153190286648</v>
+        <v>-0.2891449685530491</v>
       </c>
       <c r="T99" t="n">
-        <v>0.259888008017019</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>akses_pembelajaran_luring</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>-0.007398173788503927</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.03240813372658951</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.03724296006196504</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.04145437698623503</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.1005957258796493</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.02257081052611443</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-0.06353693881787525</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.05881519471577021</v>
-      </c>
-      <c r="J100" t="n">
-        <v>-0.05359894929701609</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.0514917488413153</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.2381925358167314</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.2771796149313701</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.07629814192901985</v>
-      </c>
-      <c r="O100" t="n">
-        <v>-0.1911395150132133</v>
-      </c>
-      <c r="P100" t="n">
-        <v>-0.08775230161070166</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.1441098864006417</v>
-      </c>
-      <c r="R100" t="n">
-        <v>-0.2480382285535152</v>
-      </c>
-      <c r="S100" t="n">
-        <v>-0.1246153190286648</v>
-      </c>
-      <c r="T100" t="n">
-        <v>-0.259888008017019</v>
+        <v>-0.04534558161838974</v>
       </c>
     </row>
   </sheetData>
